--- a/results/SummaryTable_Class_wTotals_formatted.xlsx
+++ b/results/SummaryTable_Class_wTotals_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74F839E-8B08-4AB0-9085-BA19D170F81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A718CAB5-1059-4530-8767-FBC70DA322AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,30 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>Acres</t>
-  </si>
-  <si>
-    <t>Metropolitan Center and TOD</t>
-  </si>
-  <si>
-    <t>Metropolitan Center and No TOD</t>
-  </si>
-  <si>
-    <t>Urban Center and TOD</t>
-  </si>
-  <si>
-    <t>Urban Center and No TOD</t>
-  </si>
-  <si>
-    <t>City Center and TOD</t>
-  </si>
-  <si>
-    <t>City Center and No TOD</t>
-  </si>
-  <si>
-    <t>TOD Only</t>
   </si>
   <si>
     <t>Total</t>
@@ -161,6 +140,93 @@
   </si>
   <si>
     <t>% Total Growth</t>
+  </si>
+  <si>
+    <t>CRT|Metropolitan Center</t>
+  </si>
+  <si>
+    <t>LRT|Metropolitan Center</t>
+  </si>
+  <si>
+    <t>NONTOD|Metropolitan Center</t>
+  </si>
+  <si>
+    <t>CRT|Urban Center</t>
+  </si>
+  <si>
+    <t>LRT|Urban Center</t>
+  </si>
+  <si>
+    <t>NONTOD|Urban Center</t>
+  </si>
+  <si>
+    <t>CRT|City Center</t>
+  </si>
+  <si>
+    <t>LRT|City Center</t>
+  </si>
+  <si>
+    <t>NONTOD|City Center</t>
+  </si>
+  <si>
+    <t>CRT|NA</t>
+  </si>
+  <si>
+    <t>LRT|NA</t>
+  </si>
+  <si>
+    <t>Metropolitan Center - CRT TOD</t>
+  </si>
+  <si>
+    <t>Metropolitan Center - LRT TOD</t>
+  </si>
+  <si>
+    <t>Metropolitan Center - No TOD</t>
+  </si>
+  <si>
+    <t>Urban Center - CRT TOD</t>
+  </si>
+  <si>
+    <t>Urban Center - LRT TOD</t>
+  </si>
+  <si>
+    <t>Urban Center - No TOD</t>
+  </si>
+  <si>
+    <t>City Center - CRT TOD</t>
+  </si>
+  <si>
+    <t>City Center - LRT TOD</t>
+  </si>
+  <si>
+    <t>City Center - No TOD</t>
+  </si>
+  <si>
+    <t>CRT TOD</t>
+  </si>
+  <si>
+    <t>LRT TOD</t>
+  </si>
+  <si>
+    <t>Metropolitan Center</t>
+  </si>
+  <si>
+    <t>Urban Center</t>
+  </si>
+  <si>
+    <t>City Center</t>
+  </si>
+  <si>
+    <t>No TOD</t>
+  </si>
+  <si>
+    <t>No Center - TOD</t>
+  </si>
+  <si>
+    <t>TODs</t>
+  </si>
+  <si>
+    <t>Centers</t>
   </si>
 </sst>
 </file>
@@ -798,15 +864,6 @@
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,12 +874,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -842,9 +893,6 @@
     <xf numFmtId="9" fontId="16" fillId="35" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="16" fillId="35" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -854,12 +902,6 @@
     <xf numFmtId="9" fontId="0" fillId="34" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="16" fillId="35" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="16" fillId="35" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,24 +920,12 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="16" fillId="35" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -906,6 +936,42 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1262,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N11"/>
+  <dimension ref="B2:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,499 +1343,1317 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
+      <c r="D2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>10</v>
+      <c r="B3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="str">
-        <f>SummaryTable_Class_wTotals!B2</f>
-        <v>Metropolitan Center and TOD</v>
-      </c>
-      <c r="C4" s="38">
+      <c r="B4" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B17</f>
+        <v>Metropolitan Center - CRT TOD</v>
+      </c>
+      <c r="C4" s="29">
         <f>SummaryTable_Class_wTotals!C2</f>
-        <v>623.61276045521799</v>
-      </c>
-      <c r="D4" s="39">
-        <f>C4/$C$11</f>
-        <v>1.5652102153384584E-2</v>
-      </c>
-      <c r="E4" s="18">
-        <f>(UnitsDensity!H4+UnitsDensity!K4)/(UnitsDensity!$H$11+UnitsDensity!$K$11)</f>
-        <v>8.4033613445378158E-2</v>
-      </c>
-      <c r="F4" s="38">
+        <v>250.74122081668401</v>
+      </c>
+      <c r="D4" s="30">
+        <f>C4/$C$15</f>
+        <v>6.8933482387297197E-3</v>
+      </c>
+      <c r="E4" s="12">
+        <f>(H4+K4)/($H$15+$K$15)</f>
+        <v>8.3831573591146166E-2</v>
+      </c>
+      <c r="F4" s="29">
         <f>SummaryTable_Class_wTotals!D2</f>
-        <v>64000</v>
-      </c>
-      <c r="G4" s="5">
+        <v>6700</v>
+      </c>
+      <c r="G4" s="2">
         <f>SummaryTable_Class_wTotals!E2</f>
-        <v>144000</v>
-      </c>
-      <c r="H4" s="49">
+        <v>50400</v>
+      </c>
+      <c r="H4" s="37">
         <f>SummaryTable_Class_wTotals!F2</f>
-        <v>80000</v>
-      </c>
-      <c r="I4" s="38">
+        <v>43700</v>
+      </c>
+      <c r="I4" s="29">
         <f>SummaryTable_Class_wTotals!G2</f>
-        <v>4000</v>
-      </c>
-      <c r="J4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="2">
         <f>SummaryTable_Class_wTotals!H2</f>
-        <v>54000</v>
-      </c>
-      <c r="K4" s="49">
+        <v>23200</v>
+      </c>
+      <c r="K4" s="37">
         <f>SummaryTable_Class_wTotals!I2</f>
-        <v>50000</v>
-      </c>
-      <c r="L4" s="38">
+        <v>22200</v>
+      </c>
+      <c r="L4" s="29">
         <f>SummaryTable_Class_wTotals!J2</f>
-        <v>109</v>
-      </c>
-      <c r="M4" s="5">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
         <f>SummaryTable_Class_wTotals!K2</f>
-        <v>318</v>
-      </c>
-      <c r="N4" s="49">
+        <v>294</v>
+      </c>
+      <c r="N4" s="37">
         <f>SummaryTable_Class_wTotals!L2</f>
-        <v>209</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="str">
-        <f>SummaryTable_Class_wTotals!B3</f>
-        <v>Metropolitan Center and No TOD</v>
-      </c>
-      <c r="C5" s="40">
+      <c r="B5" s="23" t="str">
+        <f>SummaryTable_Class_wTotals!B18</f>
+        <v>Metropolitan Center - LRT TOD</v>
+      </c>
+      <c r="C5" s="31">
         <f>SummaryTable_Class_wTotals!C3</f>
-        <v>310.133582098771</v>
-      </c>
-      <c r="D5" s="41">
-        <f t="shared" ref="D5:D11" si="0">C5/$C$11</f>
-        <v>7.784065394463067E-3</v>
-      </c>
-      <c r="E5" s="19">
-        <f>(UnitsDensity!H5+UnitsDensity!K5)/(UnitsDensity!$H$11+UnitsDensity!$K$11)</f>
-        <v>1.9392372333548805E-2</v>
-      </c>
-      <c r="F5" s="40">
+        <v>383.25320028865502</v>
+      </c>
+      <c r="D5" s="32">
+        <f t="shared" ref="D5:D15" si="0">C5/$C$15</f>
+        <v>1.0536352038936632E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" ref="E5:E15" si="1">(H5+K5)/($H$15+$K$15)</f>
+        <v>7.0601704617733116E-2</v>
+      </c>
+      <c r="F5" s="31">
         <f>SummaryTable_Class_wTotals!D3</f>
-        <v>10000</v>
-      </c>
-      <c r="G5" s="7">
+        <v>55600</v>
+      </c>
+      <c r="G5" s="4">
         <f>SummaryTable_Class_wTotals!E3</f>
-        <v>28000</v>
-      </c>
-      <c r="H5" s="50">
+        <v>92400</v>
+      </c>
+      <c r="H5" s="38">
         <f>SummaryTable_Class_wTotals!F3</f>
-        <v>18000</v>
-      </c>
-      <c r="I5" s="40">
+        <v>36800</v>
+      </c>
+      <c r="I5" s="31">
         <f>SummaryTable_Class_wTotals!G3</f>
-        <v>2000</v>
-      </c>
-      <c r="J5" s="7">
+        <v>3100</v>
+      </c>
+      <c r="J5" s="4">
         <f>SummaryTable_Class_wTotals!H3</f>
-        <v>14000</v>
-      </c>
-      <c r="K5" s="50">
+        <v>21800</v>
+      </c>
+      <c r="K5" s="38">
         <f>SummaryTable_Class_wTotals!I3</f>
-        <v>12000</v>
-      </c>
-      <c r="L5" s="40">
+        <v>18700</v>
+      </c>
+      <c r="L5" s="31">
         <f>SummaryTable_Class_wTotals!J3</f>
-        <v>38</v>
-      </c>
-      <c r="M5" s="7">
+        <v>153</v>
+      </c>
+      <c r="M5" s="4">
         <f>SummaryTable_Class_wTotals!K3</f>
-        <v>135</v>
-      </c>
-      <c r="N5" s="50">
+        <v>298</v>
+      </c>
+      <c r="N5" s="38">
         <f>SummaryTable_Class_wTotals!L3</f>
-        <v>97</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="str">
-        <f>SummaryTable_Class_wTotals!B4</f>
-        <v>Urban Center and TOD</v>
-      </c>
-      <c r="C6" s="38">
+      <c r="B6" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B19</f>
+        <v>Metropolitan Center - No TOD</v>
+      </c>
+      <c r="C6" s="29">
         <f>SummaryTable_Class_wTotals!C4</f>
-        <v>2194.3772177388601</v>
-      </c>
-      <c r="D6" s="39">
+        <v>299.47509924129901</v>
+      </c>
+      <c r="D6" s="30">
         <f t="shared" si="0"/>
-        <v>5.507683381917413E-2</v>
-      </c>
-      <c r="E6" s="18">
-        <f>(UnitsDensity!H6+UnitsDensity!K6)/(UnitsDensity!$H$11+UnitsDensity!$K$11)</f>
-        <v>0.15190691661279895</v>
-      </c>
-      <c r="F6" s="38">
+        <v>8.2331343094467976E-3</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="1"/>
+        <v>3.4982826612390279E-2</v>
+      </c>
+      <c r="F6" s="29">
         <f>SummaryTable_Class_wTotals!D4</f>
-        <v>57000</v>
-      </c>
-      <c r="G6" s="5">
+        <v>11400</v>
+      </c>
+      <c r="G6" s="2">
         <f>SummaryTable_Class_wTotals!E4</f>
-        <v>208000</v>
-      </c>
-      <c r="H6" s="49">
+        <v>29300</v>
+      </c>
+      <c r="H6" s="37">
         <f>SummaryTable_Class_wTotals!F4</f>
-        <v>151000</v>
-      </c>
-      <c r="I6" s="38">
+        <v>17900</v>
+      </c>
+      <c r="I6" s="29">
         <f>SummaryTable_Class_wTotals!G4</f>
-        <v>10000</v>
-      </c>
-      <c r="J6" s="5">
+        <v>2300</v>
+      </c>
+      <c r="J6" s="2">
         <f>SummaryTable_Class_wTotals!H4</f>
-        <v>94000</v>
-      </c>
-      <c r="K6" s="49">
+        <v>11900</v>
+      </c>
+      <c r="K6" s="37">
         <f>SummaryTable_Class_wTotals!I4</f>
-        <v>84000</v>
-      </c>
-      <c r="L6" s="38">
+        <v>9600</v>
+      </c>
+      <c r="L6" s="29">
         <f>SummaryTable_Class_wTotals!J4</f>
-        <v>31</v>
-      </c>
-      <c r="M6" s="5">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2">
         <f>SummaryTable_Class_wTotals!K4</f>
         <v>138</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="37">
         <f>SummaryTable_Class_wTotals!L4</f>
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="str">
-        <f>SummaryTable_Class_wTotals!B5</f>
-        <v>Urban Center and No TOD</v>
-      </c>
-      <c r="C7" s="40">
+      <c r="B7" s="23" t="str">
+        <f>SummaryTable_Class_wTotals!B20</f>
+        <v>Urban Center - CRT TOD</v>
+      </c>
+      <c r="C7" s="31">
         <f>SummaryTable_Class_wTotals!C5</f>
-        <v>8840.6988329103297</v>
-      </c>
-      <c r="D7" s="41">
+        <v>1051.5777033465199</v>
+      </c>
+      <c r="D7" s="32">
         <f t="shared" si="0"/>
-        <v>0.22189334474010847</v>
-      </c>
-      <c r="E7" s="19">
-        <f>(UnitsDensity!H7+UnitsDensity!K7)/(UnitsDensity!$H$11+UnitsDensity!$K$11)</f>
-        <v>0.33354880413703941</v>
-      </c>
-      <c r="F7" s="40">
+        <v>2.8909850903816151E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>6.882076071746597E-2</v>
+      </c>
+      <c r="F7" s="31">
         <f>SummaryTable_Class_wTotals!D5</f>
-        <v>134000</v>
-      </c>
-      <c r="G7" s="7">
+        <v>21400</v>
+      </c>
+      <c r="G7" s="4">
         <f>SummaryTable_Class_wTotals!E5</f>
-        <v>469000</v>
-      </c>
-      <c r="H7" s="50">
+        <v>57200</v>
+      </c>
+      <c r="H7" s="38">
         <f>SummaryTable_Class_wTotals!F5</f>
-        <v>335000</v>
-      </c>
-      <c r="I7" s="40">
+        <v>35800</v>
+      </c>
+      <c r="I7" s="31">
         <f>SummaryTable_Class_wTotals!G5</f>
-        <v>22000</v>
-      </c>
-      <c r="J7" s="7">
+        <v>1600</v>
+      </c>
+      <c r="J7" s="4">
         <f>SummaryTable_Class_wTotals!H5</f>
-        <v>203000</v>
-      </c>
-      <c r="K7" s="50">
+        <v>19900</v>
+      </c>
+      <c r="K7" s="38">
         <f>SummaryTable_Class_wTotals!I5</f>
-        <v>181000</v>
-      </c>
-      <c r="L7" s="40">
+        <v>18300</v>
+      </c>
+      <c r="L7" s="31">
         <f>SummaryTable_Class_wTotals!J5</f>
-        <v>18</v>
-      </c>
-      <c r="M7" s="7">
+        <v>22</v>
+      </c>
+      <c r="M7" s="4">
         <f>SummaryTable_Class_wTotals!K5</f>
-        <v>76</v>
-      </c>
-      <c r="N7" s="50">
+        <v>73</v>
+      </c>
+      <c r="N7" s="38">
         <f>SummaryTable_Class_wTotals!L5</f>
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="str">
-        <f>SummaryTable_Class_wTotals!B6</f>
-        <v>City Center and TOD</v>
-      </c>
-      <c r="C8" s="38">
+      <c r="B8" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B21</f>
+        <v>Urban Center - LRT TOD</v>
+      </c>
+      <c r="C8" s="29">
         <f>SummaryTable_Class_wTotals!C6</f>
-        <v>2463.1278627243</v>
-      </c>
-      <c r="D8" s="39">
+        <v>535.79840902352703</v>
+      </c>
+      <c r="D8" s="30">
         <f t="shared" si="0"/>
-        <v>6.1822225857062318E-2</v>
-      </c>
-      <c r="E8" s="18">
-        <f>(UnitsDensity!H8+UnitsDensity!K8)/(UnitsDensity!$H$11+UnitsDensity!$K$11)</f>
-        <v>8.4033613445378158E-2</v>
-      </c>
-      <c r="F8" s="38">
+        <v>1.4730107028779206E-2</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9894415468769878E-2</v>
+      </c>
+      <c r="F8" s="29">
         <f>SummaryTable_Class_wTotals!D6</f>
-        <v>30000</v>
-      </c>
-      <c r="G8" s="5">
+        <v>13500</v>
+      </c>
+      <c r="G8" s="2">
         <f>SummaryTable_Class_wTotals!E6</f>
-        <v>112000</v>
-      </c>
-      <c r="H8" s="49">
+        <v>28700</v>
+      </c>
+      <c r="H8" s="37">
         <f>SummaryTable_Class_wTotals!F6</f>
-        <v>82000</v>
-      </c>
-      <c r="I8" s="38">
+        <v>15200</v>
+      </c>
+      <c r="I8" s="29">
         <f>SummaryTable_Class_wTotals!G6</f>
-        <v>5000</v>
-      </c>
-      <c r="J8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="J8" s="2">
         <f>SummaryTable_Class_wTotals!H6</f>
-        <v>53000</v>
-      </c>
-      <c r="K8" s="49">
+        <v>11300</v>
+      </c>
+      <c r="K8" s="37">
         <f>SummaryTable_Class_wTotals!I6</f>
-        <v>48000</v>
-      </c>
-      <c r="L8" s="38">
+        <v>8300</v>
+      </c>
+      <c r="L8" s="29">
         <f>SummaryTable_Class_wTotals!J6</f>
-        <v>14</v>
-      </c>
-      <c r="M8" s="5">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
         <f>SummaryTable_Class_wTotals!K6</f>
-        <v>67</v>
-      </c>
-      <c r="N8" s="49">
+        <v>75</v>
+      </c>
+      <c r="N8" s="37">
         <f>SummaryTable_Class_wTotals!L6</f>
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="str">
-        <f>SummaryTable_Class_wTotals!B7</f>
-        <v>City Center and No TOD</v>
-      </c>
-      <c r="C9" s="40">
+      <c r="B9" s="23" t="str">
+        <f>SummaryTable_Class_wTotals!B22</f>
+        <v>Urban Center - No TOD</v>
+      </c>
+      <c r="C9" s="31">
         <f>SummaryTable_Class_wTotals!C7</f>
-        <v>18267.519644245302</v>
-      </c>
-      <c r="D9" s="41">
+        <v>9447.7867901936297</v>
+      </c>
+      <c r="D9" s="32">
         <f t="shared" si="0"/>
-        <v>0.45849780776129506</v>
-      </c>
-      <c r="E9" s="19">
-        <f>(UnitsDensity!H9+UnitsDensity!K9)/(UnitsDensity!$H$11+UnitsDensity!$K$11)</f>
-        <v>0.28442146089204912</v>
-      </c>
-      <c r="F9" s="40">
+        <v>0.2597374465113943</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.30097951914514692</v>
+      </c>
+      <c r="F9" s="31">
         <f>SummaryTable_Class_wTotals!D7</f>
-        <v>149000</v>
-      </c>
-      <c r="G9" s="7">
+        <v>156700</v>
+      </c>
+      <c r="G9" s="4">
         <f>SummaryTable_Class_wTotals!E7</f>
-        <v>428000</v>
-      </c>
-      <c r="H9" s="50">
+        <v>323100</v>
+      </c>
+      <c r="H9" s="38">
         <f>SummaryTable_Class_wTotals!F7</f>
-        <v>279000</v>
-      </c>
-      <c r="I9" s="40">
+        <v>166400</v>
+      </c>
+      <c r="I9" s="31">
         <f>SummaryTable_Class_wTotals!G7</f>
-        <v>31000</v>
-      </c>
-      <c r="J9" s="7">
+        <v>27200</v>
+      </c>
+      <c r="J9" s="4">
         <f>SummaryTable_Class_wTotals!H7</f>
-        <v>192000</v>
-      </c>
-      <c r="K9" s="50">
+        <v>97400</v>
+      </c>
+      <c r="K9" s="38">
         <f>SummaryTable_Class_wTotals!I7</f>
-        <v>161000</v>
-      </c>
-      <c r="L9" s="40">
+        <v>70200</v>
+      </c>
+      <c r="L9" s="31">
         <f>SummaryTable_Class_wTotals!J7</f>
+        <v>19</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SummaryTable_Class_wTotals!K7</f>
+        <v>45</v>
+      </c>
+      <c r="N9" s="38">
+        <f>SummaryTable_Class_wTotals!L7</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B23</f>
+        <v>City Center - CRT TOD</v>
+      </c>
+      <c r="C10" s="29">
+        <f>SummaryTable_Class_wTotals!C8</f>
+        <v>380.03535927827699</v>
+      </c>
+      <c r="D10" s="30">
+        <f t="shared" si="0"/>
+        <v>1.0447887531229626E-2</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="1"/>
+        <v>2.4042742653606411E-2</v>
+      </c>
+      <c r="F10" s="29">
+        <f>SummaryTable_Class_wTotals!D8</f>
+        <v>1300</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SummaryTable_Class_wTotals!E8</f>
+        <v>13800</v>
+      </c>
+      <c r="H10" s="37">
+        <f>SummaryTable_Class_wTotals!F8</f>
+        <v>12500</v>
+      </c>
+      <c r="I10" s="29">
+        <f>SummaryTable_Class_wTotals!G8</f>
+        <v>200</v>
+      </c>
+      <c r="J10" s="2">
+        <f>SummaryTable_Class_wTotals!H8</f>
+        <v>6600</v>
+      </c>
+      <c r="K10" s="37">
+        <f>SummaryTable_Class_wTotals!I8</f>
+        <v>6400</v>
+      </c>
+      <c r="L10" s="29">
+        <f>SummaryTable_Class_wTotals!J8</f>
+        <v>4</v>
+      </c>
+      <c r="M10" s="2">
+        <f>SummaryTable_Class_wTotals!K8</f>
+        <v>54</v>
+      </c>
+      <c r="N10" s="37">
+        <f>SummaryTable_Class_wTotals!L8</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="str">
+        <f>SummaryTable_Class_wTotals!B24</f>
+        <v>City Center - LRT TOD</v>
+      </c>
+      <c r="C11" s="31">
+        <f>SummaryTable_Class_wTotals!C9</f>
+        <v>1078.01399597413</v>
+      </c>
+      <c r="D11" s="32">
+        <f t="shared" si="0"/>
+        <v>2.9636634360598914E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.884874697875588E-2</v>
+      </c>
+      <c r="F11" s="31">
+        <f>SummaryTable_Class_wTotals!D9</f>
+        <v>12500</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SummaryTable_Class_wTotals!E9</f>
+        <v>37400</v>
+      </c>
+      <c r="H11" s="38">
+        <f>SummaryTable_Class_wTotals!F9</f>
+        <v>24900</v>
+      </c>
+      <c r="I11" s="31">
+        <f>SummaryTable_Class_wTotals!G9</f>
+        <v>2100</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SummaryTable_Class_wTotals!H9</f>
+        <v>15600</v>
+      </c>
+      <c r="K11" s="38">
+        <f>SummaryTable_Class_wTotals!I9</f>
+        <v>13500</v>
+      </c>
+      <c r="L11" s="31">
+        <f>SummaryTable_Class_wTotals!J9</f>
+        <v>13</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SummaryTable_Class_wTotals!K9</f>
+        <v>49</v>
+      </c>
+      <c r="N11" s="38">
+        <f>SummaryTable_Class_wTotals!L9</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B25</f>
+        <v>City Center - No TOD</v>
+      </c>
+      <c r="C12" s="29">
+        <f>SummaryTable_Class_wTotals!C10</f>
+        <v>18949.018872781799</v>
+      </c>
+      <c r="D12" s="30">
+        <f t="shared" si="0"/>
+        <v>0.52094420473386793</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.30021625747360386</v>
+      </c>
+      <c r="F12" s="29">
+        <f>SummaryTable_Class_wTotals!D10</f>
+        <v>163200</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SummaryTable_Class_wTotals!E10</f>
+        <v>318300</v>
+      </c>
+      <c r="H12" s="37">
+        <f>SummaryTable_Class_wTotals!F10</f>
+        <v>155100</v>
+      </c>
+      <c r="I12" s="29">
+        <f>SummaryTable_Class_wTotals!G10</f>
+        <v>33300</v>
+      </c>
+      <c r="J12" s="2">
+        <f>SummaryTable_Class_wTotals!H10</f>
+        <v>114200</v>
+      </c>
+      <c r="K12" s="37">
+        <f>SummaryTable_Class_wTotals!I10</f>
+        <v>80900</v>
+      </c>
+      <c r="L12" s="29">
+        <f>SummaryTable_Class_wTotals!J10</f>
         <v>10</v>
       </c>
-      <c r="M9" s="7">
-        <f>SummaryTable_Class_wTotals!K7</f>
-        <v>34</v>
-      </c>
-      <c r="N9" s="50">
-        <f>SummaryTable_Class_wTotals!L7</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="str">
-        <f>SummaryTable_Class_wTotals!B8</f>
-        <v>TOD Only</v>
-      </c>
-      <c r="C10" s="38">
-        <f>SummaryTable_Class_wTotals!C8</f>
-        <v>7142.6391241648398</v>
-      </c>
-      <c r="D10" s="39">
+      <c r="M12" s="2">
+        <f>SummaryTable_Class_wTotals!K10</f>
+        <v>23</v>
+      </c>
+      <c r="N12" s="37">
+        <f>SummaryTable_Class_wTotals!L10</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="str">
+        <f>SummaryTable_Class_wTotals!B26</f>
+        <v>CRT TOD</v>
+      </c>
+      <c r="C13" s="31">
+        <f>SummaryTable_Class_wTotals!C11</f>
+        <v>1023.6709333539</v>
+      </c>
+      <c r="D13" s="32">
         <f t="shared" si="0"/>
-        <v>0.17927362027451282</v>
-      </c>
-      <c r="E10" s="18">
-        <f>(UnitsDensity!H10+UnitsDensity!K10)/(UnitsDensity!$H$11+UnitsDensity!$K$11)</f>
-        <v>4.2016806722689079E-2</v>
-      </c>
-      <c r="F10" s="38">
-        <f>SummaryTable_Class_wTotals!D8</f>
-        <v>76000</v>
-      </c>
-      <c r="G10" s="5">
-        <f>SummaryTable_Class_wTotals!E8</f>
-        <v>118000</v>
-      </c>
-      <c r="H10" s="49">
-        <f>SummaryTable_Class_wTotals!F8</f>
-        <v>42000</v>
-      </c>
-      <c r="I10" s="38">
-        <f>SummaryTable_Class_wTotals!G8</f>
-        <v>23000</v>
-      </c>
-      <c r="J10" s="5">
-        <f>SummaryTable_Class_wTotals!H8</f>
-        <v>46000</v>
-      </c>
-      <c r="K10" s="49">
-        <f>SummaryTable_Class_wTotals!I8</f>
-        <v>23000</v>
-      </c>
-      <c r="L10" s="38">
-        <f>SummaryTable_Class_wTotals!J8</f>
-        <v>14</v>
-      </c>
-      <c r="M10" s="5">
-        <f>SummaryTable_Class_wTotals!K8</f>
-        <v>23</v>
-      </c>
-      <c r="N10" s="49">
-        <f>SummaryTable_Class_wTotals!L8</f>
+        <v>2.8142641255754716E-2</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>1.221218674468897E-2</v>
+      </c>
+      <c r="F13" s="31">
+        <f>SummaryTable_Class_wTotals!D11</f>
+        <v>4200</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SummaryTable_Class_wTotals!E11</f>
+        <v>10500</v>
+      </c>
+      <c r="H13" s="38">
+        <f>SummaryTable_Class_wTotals!F11</f>
+        <v>6300</v>
+      </c>
+      <c r="I13" s="31">
+        <f>SummaryTable_Class_wTotals!G11</f>
+        <v>2000</v>
+      </c>
+      <c r="J13" s="4">
+        <f>SummaryTable_Class_wTotals!H11</f>
+        <v>5300</v>
+      </c>
+      <c r="K13" s="38">
+        <f>SummaryTable_Class_wTotals!I11</f>
+        <v>3300</v>
+      </c>
+      <c r="L13" s="31">
+        <f>SummaryTable_Class_wTotals!J11</f>
+        <v>6</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SummaryTable_Class_wTotals!K11</f>
+        <v>15</v>
+      </c>
+      <c r="N13" s="38">
+        <f>SummaryTable_Class_wTotals!L11</f>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="42">
-        <v>39842.109024337602</v>
-      </c>
-      <c r="D11" s="43">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B27</f>
+        <v>LRT TOD</v>
+      </c>
+      <c r="C14" s="29">
+        <f>SummaryTable_Class_wTotals!C12</f>
+        <v>2975.0015262771599</v>
+      </c>
+      <c r="D14" s="30">
+        <f t="shared" si="0"/>
+        <v>8.1788393087445357E-2</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="1"/>
+        <v>2.5442055718102024E-2</v>
+      </c>
+      <c r="F14" s="29">
+        <f>SummaryTable_Class_wTotals!D12</f>
+        <v>37500</v>
+      </c>
+      <c r="G14" s="2">
+        <f>SummaryTable_Class_wTotals!E12</f>
+        <v>50300</v>
+      </c>
+      <c r="H14" s="37">
+        <f>SummaryTable_Class_wTotals!F12</f>
+        <v>12800</v>
+      </c>
+      <c r="I14" s="29">
+        <f>SummaryTable_Class_wTotals!G12</f>
+        <v>8200</v>
+      </c>
+      <c r="J14" s="2">
+        <f>SummaryTable_Class_wTotals!H12</f>
+        <v>15400</v>
+      </c>
+      <c r="K14" s="37">
+        <f>SummaryTable_Class_wTotals!I12</f>
+        <v>7200</v>
+      </c>
+      <c r="L14" s="29">
+        <f>SummaryTable_Class_wTotals!J12</f>
+        <v>15</v>
+      </c>
+      <c r="M14" s="2">
+        <f>SummaryTable_Class_wTotals!K12</f>
+        <v>22</v>
+      </c>
+      <c r="N14" s="37">
+        <f>SummaryTable_Class_wTotals!L12</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="33">
+        <f>SummaryTable_Class_wTotals!C13</f>
+        <v>36374.373110575601</v>
+      </c>
+      <c r="D15" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="20">
-        <f>(UnitsDensity!H11+UnitsDensity!K11)/(UnitsDensity!$H$11+UnitsDensity!$K$11)</f>
+      <c r="E15" s="14">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F11" s="42">
-        <f>SummaryTable_Class_wTotals!D9</f>
-        <v>520000</v>
-      </c>
-      <c r="G11" s="51">
-        <f>SummaryTable_Class_wTotals!E9</f>
-        <v>1508000</v>
-      </c>
-      <c r="H11" s="52">
-        <f>SummaryTable_Class_wTotals!F9</f>
-        <v>988000</v>
-      </c>
-      <c r="I11" s="42">
-        <f>SummaryTable_Class_wTotals!G9</f>
-        <v>97000</v>
-      </c>
-      <c r="J11" s="51">
-        <f>SummaryTable_Class_wTotals!H9</f>
-        <v>656000</v>
-      </c>
-      <c r="K11" s="52">
-        <f>SummaryTable_Class_wTotals!I9</f>
-        <v>559000</v>
-      </c>
-      <c r="L11" s="42">
-        <f>SummaryTable_Class_wTotals!J9</f>
+      <c r="F15" s="33">
+        <f>SummaryTable_Class_wTotals!D13</f>
+        <v>483900</v>
+      </c>
+      <c r="G15" s="39">
+        <f>SummaryTable_Class_wTotals!E13</f>
+        <v>1011400</v>
+      </c>
+      <c r="H15" s="40">
+        <f>SummaryTable_Class_wTotals!F13</f>
+        <v>527500</v>
+      </c>
+      <c r="I15" s="33">
+        <f>SummaryTable_Class_wTotals!G13</f>
+        <v>84000</v>
+      </c>
+      <c r="J15" s="39">
+        <f>SummaryTable_Class_wTotals!H13</f>
+        <v>342600</v>
+      </c>
+      <c r="K15" s="40">
+        <f>SummaryTable_Class_wTotals!I13</f>
+        <v>258600</v>
+      </c>
+      <c r="L15" s="33">
+        <f>SummaryTable_Class_wTotals!J13</f>
         <v>16</v>
       </c>
-      <c r="M11" s="51">
-        <f>SummaryTable_Class_wTotals!K9</f>
-        <v>54</v>
-      </c>
-      <c r="N11" s="52">
-        <f>SummaryTable_Class_wTotals!L9</f>
-        <v>38</v>
+      <c r="M15" s="39">
+        <f>SummaryTable_Class_wTotals!K13</f>
+        <v>37</v>
+      </c>
+      <c r="N15" s="40">
+        <f>SummaryTable_Class_wTotals!L13</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="29">
+        <f>C4+C5+C6</f>
+        <v>933.46952034663809</v>
+      </c>
+      <c r="D20" s="30">
+        <f>C20/$C$15</f>
+        <v>2.5662834587113149E-2</v>
+      </c>
+      <c r="E20" s="12">
+        <f>(H20+K20)/($H$15+$K$15)</f>
+        <v>0.18941610482126955</v>
+      </c>
+      <c r="F20" s="29">
+        <f t="shared" ref="F20:K20" si="2">F4+F5+F6</f>
+        <v>73700</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>172100</v>
+      </c>
+      <c r="H20" s="37">
+        <f t="shared" si="2"/>
+        <v>98400</v>
+      </c>
+      <c r="I20" s="29">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>56900</v>
+      </c>
+      <c r="K20" s="37">
+        <f t="shared" si="2"/>
+        <v>50500</v>
+      </c>
+      <c r="L20" s="29">
+        <f>(F20+I20)/$C20</f>
+        <v>85.80890779407062</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" ref="M20:N20" si="3">(G20+J20)/$C20</f>
+        <v>245.32134687693099</v>
+      </c>
+      <c r="N20" s="37">
+        <f t="shared" si="3"/>
+        <v>159.51243908286037</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="31">
+        <f>C7+C8+C9</f>
+        <v>11035.162902563676</v>
+      </c>
+      <c r="D21" s="32">
+        <f t="shared" ref="D21:D24" si="4">C21/$C$15</f>
+        <v>0.30337740444398964</v>
+      </c>
+      <c r="E21" s="13">
+        <f>(H21+K21)/($H$15+$K$15)</f>
+        <v>0.3996946953313828</v>
+      </c>
+      <c r="F21" s="31">
+        <f t="shared" ref="F21:K21" si="5">F7+F8+F9</f>
+        <v>191600</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="5"/>
+        <v>409000</v>
+      </c>
+      <c r="H21" s="38">
+        <f t="shared" si="5"/>
+        <v>217400</v>
+      </c>
+      <c r="I21" s="31">
+        <f t="shared" si="5"/>
+        <v>31800</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="5"/>
+        <v>128600</v>
+      </c>
+      <c r="K21" s="38">
+        <f t="shared" si="5"/>
+        <v>96800</v>
+      </c>
+      <c r="L21" s="31">
+        <f t="shared" ref="L21:L24" si="6">(F21+I21)/$C21</f>
+        <v>20.244377176171998</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" ref="M21:M24" si="7">(G21+J21)/$C21</f>
+        <v>48.716997179543711</v>
+      </c>
+      <c r="N21" s="38">
+        <f t="shared" ref="N21:N24" si="8">(H21+K21)/$C21</f>
+        <v>28.472620003371716</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="29">
+        <f>C10+C11+C12</f>
+        <v>20407.068228034204</v>
+      </c>
+      <c r="D22" s="30">
+        <f t="shared" si="4"/>
+        <v>0.56102872662569647</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22:E24" si="9">(H22+K22)/($H$15+$K$15)</f>
+        <v>0.37310774710596617</v>
+      </c>
+      <c r="F22" s="29">
+        <f t="shared" ref="F22:K22" si="10">F10+F11+F12</f>
+        <v>177000</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="10"/>
+        <v>369500</v>
+      </c>
+      <c r="H22" s="37">
+        <f t="shared" si="10"/>
+        <v>192500</v>
+      </c>
+      <c r="I22" s="29">
+        <f t="shared" si="10"/>
+        <v>35600</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="10"/>
+        <v>136400</v>
+      </c>
+      <c r="K22" s="37">
+        <f t="shared" si="10"/>
+        <v>100800</v>
+      </c>
+      <c r="L22" s="29">
+        <f t="shared" si="6"/>
+        <v>10.417958994616425</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="7"/>
+        <v>24.790430175806438</v>
+      </c>
+      <c r="N22" s="37">
+        <f t="shared" si="8"/>
+        <v>14.372471181190015</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="31">
+        <f>C13+C14</f>
+        <v>3998.6724596310596</v>
+      </c>
+      <c r="D23" s="32">
+        <f t="shared" si="4"/>
+        <v>0.10993103434320008</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="9"/>
+        <v>3.7654242462790991E-2</v>
+      </c>
+      <c r="F23" s="31">
+        <f t="shared" ref="F23:K23" si="11">F13+F14</f>
+        <v>41700</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="11"/>
+        <v>60800</v>
+      </c>
+      <c r="H23" s="38">
+        <f t="shared" si="11"/>
+        <v>19100</v>
+      </c>
+      <c r="I23" s="31">
+        <f t="shared" si="11"/>
+        <v>10200</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="11"/>
+        <v>20700</v>
+      </c>
+      <c r="K23" s="38">
+        <f t="shared" si="11"/>
+        <v>10500</v>
+      </c>
+      <c r="L23" s="31">
+        <f t="shared" si="6"/>
+        <v>12.979307638712822</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="7"/>
+        <v>20.381764403759057</v>
+      </c>
+      <c r="N23" s="38">
+        <f t="shared" si="8"/>
+        <v>7.4024567650462334</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="33">
+        <f>C15</f>
+        <v>36374.373110575601</v>
+      </c>
+      <c r="D24" s="34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" ref="F24:N24" si="12">F15</f>
+        <v>483900</v>
+      </c>
+      <c r="G24" s="39">
+        <f t="shared" si="12"/>
+        <v>1011400</v>
+      </c>
+      <c r="H24" s="40">
+        <f t="shared" si="12"/>
+        <v>527500</v>
+      </c>
+      <c r="I24" s="33">
+        <f t="shared" si="12"/>
+        <v>84000</v>
+      </c>
+      <c r="J24" s="39">
+        <f t="shared" si="12"/>
+        <v>342600</v>
+      </c>
+      <c r="K24" s="40">
+        <f t="shared" si="12"/>
+        <v>258600</v>
+      </c>
+      <c r="L24" s="33">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="M24" s="39">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="N24" s="40">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="42"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="45"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="29">
+        <f>C4+C7+C10+C13</f>
+        <v>2706.0252167953809</v>
+      </c>
+      <c r="D29" s="30">
+        <f>C29/$C$15</f>
+        <v>7.439372792953021E-2</v>
+      </c>
+      <c r="E29" s="12">
+        <f>(H29+K29)/($H$15+$K$15)</f>
+        <v>0.18890726370690752</v>
+      </c>
+      <c r="F29" s="29">
+        <f t="shared" ref="F29:K29" si="13">F4+F7+F10+F13</f>
+        <v>33600</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="13"/>
+        <v>131900</v>
+      </c>
+      <c r="H29" s="37">
+        <f t="shared" si="13"/>
+        <v>98300</v>
+      </c>
+      <c r="I29" s="29">
+        <f t="shared" si="13"/>
+        <v>4800</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="13"/>
+        <v>55000</v>
+      </c>
+      <c r="K29" s="37">
+        <f t="shared" si="13"/>
+        <v>50200</v>
+      </c>
+      <c r="L29" s="29">
+        <f>(F29+I29)/$C29</f>
+        <v>14.190555121831173</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" ref="M29:M32" si="14">(G29+J29)/$C29</f>
+        <v>69.068092507037662</v>
+      </c>
+      <c r="N29" s="37">
+        <f t="shared" ref="N29:N32" si="15">(H29+K29)/$C29</f>
+        <v>54.877537385206487</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="31">
+        <f>C5+C8+C11+C14</f>
+        <v>4972.0671315634718</v>
+      </c>
+      <c r="D30" s="32">
+        <f t="shared" ref="D30:D32" si="16">C30/$C$15</f>
+        <v>0.1366914865157601</v>
+      </c>
+      <c r="E30" s="13">
+        <f>(H30+K30)/($H$15+$K$15)</f>
+        <v>0.17478692278336089</v>
+      </c>
+      <c r="F30" s="31">
+        <f t="shared" ref="F30:K30" si="17">F5+F8+F11+F14</f>
+        <v>119100</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="17"/>
+        <v>208800</v>
+      </c>
+      <c r="H30" s="38">
+        <f t="shared" si="17"/>
+        <v>89700</v>
+      </c>
+      <c r="I30" s="31">
+        <f t="shared" si="17"/>
+        <v>16400</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="17"/>
+        <v>64100</v>
+      </c>
+      <c r="K30" s="38">
+        <f t="shared" si="17"/>
+        <v>47700</v>
+      </c>
+      <c r="L30" s="31">
+        <f t="shared" ref="L30:L32" si="18">(F30+I30)/$C30</f>
+        <v>27.252246684246174</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="14"/>
+        <v>54.886628192847091</v>
+      </c>
+      <c r="N30" s="38">
+        <f t="shared" si="15"/>
+        <v>27.634381508600917</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="29">
+        <f>C6+C9+C12</f>
+        <v>28696.280762216727</v>
+      </c>
+      <c r="D31" s="30">
+        <f t="shared" si="16"/>
+        <v>0.78891478555470906</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" ref="E31:E32" si="19">(H31+K31)/($H$15+$K$15)</f>
+        <v>0.63617860323114106</v>
+      </c>
+      <c r="F31" s="29">
+        <f t="shared" ref="F31:K31" si="20">F6+F9+F12</f>
+        <v>331300</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="20"/>
+        <v>670700</v>
+      </c>
+      <c r="H31" s="37">
+        <f t="shared" si="20"/>
+        <v>339400</v>
+      </c>
+      <c r="I31" s="29">
+        <f t="shared" si="20"/>
+        <v>62800</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="20"/>
+        <v>223500</v>
+      </c>
+      <c r="K31" s="37">
+        <f t="shared" si="20"/>
+        <v>160700</v>
+      </c>
+      <c r="L31" s="29">
+        <f t="shared" si="18"/>
+        <v>13.733487041947821</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="14"/>
+        <v>31.160832562572299</v>
+      </c>
+      <c r="N31" s="37">
+        <f t="shared" si="15"/>
+        <v>17.427345520624474</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="33">
+        <f>C24</f>
+        <v>36374.373110575601</v>
+      </c>
+      <c r="D32" s="34">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="33">
+        <f t="shared" ref="F32:N32" si="21">F24</f>
+        <v>483900</v>
+      </c>
+      <c r="G32" s="39">
+        <f t="shared" si="21"/>
+        <v>1011400</v>
+      </c>
+      <c r="H32" s="40">
+        <f t="shared" si="21"/>
+        <v>527500</v>
+      </c>
+      <c r="I32" s="33">
+        <f t="shared" si="21"/>
+        <v>84000</v>
+      </c>
+      <c r="J32" s="39">
+        <f t="shared" si="21"/>
+        <v>342600</v>
+      </c>
+      <c r="K32" s="40">
+        <f t="shared" si="21"/>
+        <v>258600</v>
+      </c>
+      <c r="L32" s="33">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="M32" s="39">
+        <f t="shared" si="21"/>
+        <v>37</v>
+      </c>
+      <c r="N32" s="40">
+        <f t="shared" si="21"/>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="21">
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:H2"/>
@@ -1777,6 +2661,20 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1785,413 +2683,582 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF95D237-0CC0-48D9-B8E7-CC6B51F60950}">
-  <dimension ref="B2:K11"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="4" width="8" customWidth="1"/>
-    <col min="5" max="7" width="10.140625" style="4" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="10.140625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="10"/>
+      <c r="D2" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="52"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>36</v>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="str">
-        <f>SummaryTable_Class_wTotals!B2</f>
-        <v>Metropolitan Center and TOD</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B4" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B17</f>
+        <v>Metropolitan Center - CRT TOD</v>
+      </c>
+      <c r="C4" s="15">
         <f>SummaryTable_Class_wTotals!C2</f>
-        <v>623.61276045521799</v>
-      </c>
-      <c r="D4" s="24">
-        <f>C4/$C$11</f>
-        <v>1.5652102153384584E-2</v>
-      </c>
-      <c r="E4" s="11">
+        <v>250.74122081668401</v>
+      </c>
+      <c r="D4" s="18">
+        <f>C4/$C$15</f>
+        <v>6.8933482387297197E-3</v>
+      </c>
+      <c r="E4" s="6">
         <f>SummaryTable_Class_wTotals!M2</f>
-        <v>0.47939313289791102</v>
-      </c>
-      <c r="F4" s="6">
+        <v>0.55325948686538595</v>
+      </c>
+      <c r="F4" s="3">
         <f>SummaryTable_Class_wTotals!N2</f>
-        <v>0.327532989639154</v>
-      </c>
-      <c r="G4" s="12">
+        <v>0.241245335705772</v>
+      </c>
+      <c r="G4" s="7">
         <f>SummaryTable_Class_wTotals!O2</f>
-        <v>0.193073877462934</v>
-      </c>
-      <c r="H4" s="11">
+        <v>0.20549517742883999</v>
+      </c>
+      <c r="H4" s="6">
         <f>SummaryTable_Class_wTotals!P2</f>
-        <v>0.528688624056461</v>
-      </c>
-      <c r="I4" s="12">
+        <v>0.53055347266442798</v>
+      </c>
+      <c r="I4" s="7">
         <f>SummaryTable_Class_wTotals!Q2</f>
-        <v>0.471311375943539</v>
-      </c>
-      <c r="J4" s="11">
+        <v>0.46944652733557102</v>
+      </c>
+      <c r="J4" s="6">
         <f>SummaryTable_Class_wTotals!R2</f>
-        <v>0.62202820729042596</v>
-      </c>
-      <c r="K4" s="12">
+        <v>0.53929311569784599</v>
+      </c>
+      <c r="K4" s="7">
         <f>SummaryTable_Class_wTotals!S2</f>
-        <v>0.37797179270957298</v>
+        <v>0.46070688430215301</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="str">
-        <f>SummaryTable_Class_wTotals!B3</f>
-        <v>Metropolitan Center and No TOD</v>
-      </c>
-      <c r="C5" s="22">
+      <c r="B5" s="23" t="str">
+        <f>SummaryTable_Class_wTotals!B18</f>
+        <v>Metropolitan Center - LRT TOD</v>
+      </c>
+      <c r="C5" s="16">
         <f>SummaryTable_Class_wTotals!C3</f>
-        <v>310.133582098771</v>
-      </c>
-      <c r="D5" s="25">
-        <f t="shared" ref="D5:D11" si="0">C5/$C$11</f>
-        <v>7.784065394463067E-3</v>
-      </c>
-      <c r="E5" s="13">
+        <v>383.25320028865502</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" ref="D5:D15" si="0">C5/$C$15</f>
+        <v>1.0536352038936632E-2</v>
+      </c>
+      <c r="E5" s="8">
         <f>SummaryTable_Class_wTotals!M3</f>
-        <v>0.48492570034529198</v>
-      </c>
-      <c r="F5" s="8">
+        <v>0.753732314846005</v>
+      </c>
+      <c r="F5" s="5">
         <f>SummaryTable_Class_wTotals!N3</f>
-        <v>0.40020451800507101</v>
-      </c>
-      <c r="G5" s="14">
+        <v>6.7384564042488104E-2</v>
+      </c>
+      <c r="G5" s="9">
         <f>SummaryTable_Class_wTotals!O3</f>
-        <v>0.114869781649635</v>
-      </c>
-      <c r="H5" s="13">
+        <v>0.178883121111506</v>
+      </c>
+      <c r="H5" s="8">
         <f>SummaryTable_Class_wTotals!P3</f>
-        <v>0.72011166448382002</v>
-      </c>
-      <c r="I5" s="14">
+        <v>0.25883347171996401</v>
+      </c>
+      <c r="I5" s="9">
         <f>SummaryTable_Class_wTotals!Q3</f>
-        <v>0.27988833551617898</v>
-      </c>
-      <c r="J5" s="13">
+        <v>0.74116652828003504</v>
+      </c>
+      <c r="J5" s="8">
         <f>SummaryTable_Class_wTotals!R3</f>
-        <v>0.76534844601135199</v>
-      </c>
-      <c r="K5" s="14">
+        <v>0.27333980628789201</v>
+      </c>
+      <c r="K5" s="9">
         <f>SummaryTable_Class_wTotals!S3</f>
-        <v>0.23465155398864701</v>
+        <v>0.72666019371210699</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="str">
-        <f>SummaryTable_Class_wTotals!B4</f>
-        <v>Urban Center and TOD</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B6" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B19</f>
+        <v>Metropolitan Center - No TOD</v>
+      </c>
+      <c r="C6" s="15">
         <f>SummaryTable_Class_wTotals!C4</f>
-        <v>2194.3772177388601</v>
-      </c>
-      <c r="D6" s="24">
+        <v>299.47509924129901</v>
+      </c>
+      <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>5.507683381917413E-2</v>
-      </c>
-      <c r="E6" s="11">
+        <v>8.2331343094467976E-3</v>
+      </c>
+      <c r="E6" s="6">
         <f>SummaryTable_Class_wTotals!M4</f>
-        <v>0.49713868158964902</v>
-      </c>
-      <c r="F6" s="6">
+        <v>0.64207706589538005</v>
+      </c>
+      <c r="F6" s="3">
         <f>SummaryTable_Class_wTotals!N4</f>
-        <v>0.30445432195224398</v>
-      </c>
-      <c r="G6" s="12">
+        <v>0.23803215767529601</v>
+      </c>
+      <c r="G6" s="7">
         <f>SummaryTable_Class_wTotals!O4</f>
-        <v>0.198406996458105</v>
-      </c>
-      <c r="H6" s="11">
+        <v>0.119890776429323</v>
+      </c>
+      <c r="H6" s="6">
         <f>SummaryTable_Class_wTotals!P4</f>
-        <v>0.54609905193565</v>
-      </c>
-      <c r="I6" s="12">
+        <v>0.63993977774523303</v>
+      </c>
+      <c r="I6" s="7">
         <f>SummaryTable_Class_wTotals!Q4</f>
-        <v>0.453900948064349</v>
-      </c>
-      <c r="J6" s="11">
+        <v>0.36006022225476603</v>
+      </c>
+      <c r="J6" s="6">
         <f>SummaryTable_Class_wTotals!R4</f>
-        <v>0.59351494610320499</v>
-      </c>
-      <c r="K6" s="12">
+        <v>0.66253164784557395</v>
+      </c>
+      <c r="K6" s="7">
         <f>SummaryTable_Class_wTotals!S4</f>
-        <v>0.40648505389679501</v>
+        <v>0.337468352154426</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="str">
-        <f>SummaryTable_Class_wTotals!B5</f>
-        <v>Urban Center and No TOD</v>
-      </c>
-      <c r="C7" s="22">
+      <c r="B7" s="23" t="str">
+        <f>SummaryTable_Class_wTotals!B20</f>
+        <v>Urban Center - CRT TOD</v>
+      </c>
+      <c r="C7" s="16">
         <f>SummaryTable_Class_wTotals!C5</f>
-        <v>8840.6988329103297</v>
-      </c>
-      <c r="D7" s="25">
+        <v>1051.5777033465199</v>
+      </c>
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
-        <v>0.22189334474010847</v>
-      </c>
-      <c r="E7" s="13">
+        <v>2.8909850903816151E-2</v>
+      </c>
+      <c r="E7" s="8">
         <f>SummaryTable_Class_wTotals!M5</f>
-        <v>0.56270828696115205</v>
-      </c>
-      <c r="F7" s="8">
+        <v>0.70341579820519895</v>
+      </c>
+      <c r="F7" s="5">
         <f>SummaryTable_Class_wTotals!N5</f>
-        <v>0.219823273954034</v>
-      </c>
-      <c r="G7" s="14">
+        <v>5.6391981262524302E-2</v>
+      </c>
+      <c r="G7" s="9">
         <f>SummaryTable_Class_wTotals!O5</f>
-        <v>0.217468439084813</v>
-      </c>
-      <c r="H7" s="13">
+        <v>0.24019222053227601</v>
+      </c>
+      <c r="H7" s="8">
         <f>SummaryTable_Class_wTotals!P5</f>
-        <v>0.44218617478523897</v>
-      </c>
-      <c r="I7" s="14">
+        <v>0.17267996287690901</v>
+      </c>
+      <c r="I7" s="9">
         <f>SummaryTable_Class_wTotals!Q5</f>
-        <v>0.55781382521475997</v>
-      </c>
-      <c r="J7" s="13">
+        <v>0.82732003712308999</v>
+      </c>
+      <c r="J7" s="8">
         <f>SummaryTable_Class_wTotals!R5</f>
-        <v>0.48430776491135902</v>
-      </c>
-      <c r="K7" s="14">
+        <v>0.18691256346070301</v>
+      </c>
+      <c r="K7" s="9">
         <f>SummaryTable_Class_wTotals!S5</f>
-        <v>0.51569223508864004</v>
+        <v>0.81308743653929605</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="str">
-        <f>SummaryTable_Class_wTotals!B6</f>
-        <v>City Center and TOD</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="B8" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B21</f>
+        <v>Urban Center - LRT TOD</v>
+      </c>
+      <c r="C8" s="15">
         <f>SummaryTable_Class_wTotals!C6</f>
-        <v>2463.1278627243</v>
-      </c>
-      <c r="D8" s="24">
+        <v>535.79840902352703</v>
+      </c>
+      <c r="D8" s="18">
         <f t="shared" si="0"/>
-        <v>6.1822225857062318E-2</v>
-      </c>
-      <c r="E8" s="11">
+        <v>1.4730107028779206E-2</v>
+      </c>
+      <c r="E8" s="6">
         <f>SummaryTable_Class_wTotals!M6</f>
-        <v>0.377064250641514</v>
-      </c>
-      <c r="F8" s="6">
+        <v>0.73517277302125295</v>
+      </c>
+      <c r="F8" s="3">
         <f>SummaryTable_Class_wTotals!N6</f>
-        <v>0.31673692358708999</v>
-      </c>
-      <c r="G8" s="12">
+        <v>9.7396278829744803E-2</v>
+      </c>
+      <c r="G8" s="7">
         <f>SummaryTable_Class_wTotals!O6</f>
-        <v>0.30619882577139401</v>
-      </c>
-      <c r="H8" s="11">
+        <v>0.167430948149001</v>
+      </c>
+      <c r="H8" s="6">
         <f>SummaryTable_Class_wTotals!P6</f>
-        <v>0.41073737817657202</v>
-      </c>
-      <c r="I8" s="12">
+        <v>0.31055034603794002</v>
+      </c>
+      <c r="I8" s="7">
         <f>SummaryTable_Class_wTotals!Q6</f>
-        <v>0.58926262182342704</v>
-      </c>
-      <c r="J8" s="11">
+        <v>0.68944965396205904</v>
+      </c>
+      <c r="J8" s="6">
         <f>SummaryTable_Class_wTotals!R6</f>
-        <v>0.49643504023486701</v>
-      </c>
-      <c r="K8" s="12">
+        <v>0.36540143054320801</v>
+      </c>
+      <c r="K8" s="7">
         <f>SummaryTable_Class_wTotals!S6</f>
-        <v>0.50356495976513205</v>
+        <v>0.63459856945679105</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="str">
-        <f>SummaryTable_Class_wTotals!B7</f>
-        <v>City Center and No TOD</v>
-      </c>
-      <c r="C9" s="22">
+      <c r="B9" s="23" t="str">
+        <f>SummaryTable_Class_wTotals!B22</f>
+        <v>Urban Center - No TOD</v>
+      </c>
+      <c r="C9" s="16">
         <f>SummaryTable_Class_wTotals!C7</f>
-        <v>18267.519644245302</v>
-      </c>
-      <c r="D9" s="25">
+        <v>9447.7867901936297</v>
+      </c>
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
-        <v>0.45849780776129506</v>
-      </c>
-      <c r="E9" s="13">
+        <v>0.2597374465113943</v>
+      </c>
+      <c r="E9" s="8">
         <f>SummaryTable_Class_wTotals!M7</f>
-        <v>0.424534101297804</v>
-      </c>
-      <c r="F9" s="8">
+        <v>0.73807658061037795</v>
+      </c>
+      <c r="F9" s="5">
         <f>SummaryTable_Class_wTotals!N7</f>
-        <v>0.22633613644054101</v>
-      </c>
-      <c r="G9" s="14">
+        <v>4.8587317171154103E-2</v>
+      </c>
+      <c r="G9" s="9">
         <f>SummaryTable_Class_wTotals!O7</f>
-        <v>0.34912976226165399</v>
-      </c>
-      <c r="H9" s="13">
+        <v>0.21333610221846699</v>
+      </c>
+      <c r="H9" s="8">
         <f>SummaryTable_Class_wTotals!P7</f>
-        <v>0.26790377330207998</v>
-      </c>
-      <c r="I9" s="14">
+        <v>0.16226044266088399</v>
+      </c>
+      <c r="I9" s="9">
         <f>SummaryTable_Class_wTotals!Q7</f>
-        <v>0.73209622669791896</v>
-      </c>
-      <c r="J9" s="13">
+        <v>0.83773955733911498</v>
+      </c>
+      <c r="J9" s="8">
         <f>SummaryTable_Class_wTotals!R7</f>
-        <v>0.36593559146460303</v>
-      </c>
-      <c r="K9" s="14">
+        <v>0.17301672768186099</v>
+      </c>
+      <c r="K9" s="9">
         <f>SummaryTable_Class_wTotals!S7</f>
-        <v>0.63406440853539603</v>
+        <v>0.82698327231813795</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="str">
-        <f>SummaryTable_Class_wTotals!B8</f>
-        <v>TOD Only</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B23</f>
+        <v>City Center - CRT TOD</v>
+      </c>
+      <c r="C10" s="15">
         <f>SummaryTable_Class_wTotals!C8</f>
-        <v>7142.6391241648398</v>
-      </c>
-      <c r="D10" s="24">
+        <v>380.03535927827699</v>
+      </c>
+      <c r="D10" s="18">
         <f t="shared" si="0"/>
-        <v>0.17927362027451282</v>
-      </c>
-      <c r="E10" s="11">
+        <v>1.0447887531229626E-2</v>
+      </c>
+      <c r="E10" s="6">
         <f>SummaryTable_Class_wTotals!M8</f>
-        <v>0.56206327919053301</v>
-      </c>
-      <c r="F10" s="6">
+        <v>0.341768083148071</v>
+      </c>
+      <c r="F10" s="3">
         <f>SummaryTable_Class_wTotals!N8</f>
-        <v>0.26296222909953298</v>
-      </c>
-      <c r="G10" s="12">
+        <v>4.0296866940982001E-2</v>
+      </c>
+      <c r="G10" s="7">
         <f>SummaryTable_Class_wTotals!O8</f>
-        <v>0.17497449170993301</v>
-      </c>
-      <c r="H10" s="11">
+        <v>0.61793504991094605</v>
+      </c>
+      <c r="H10" s="6">
         <f>SummaryTable_Class_wTotals!P8</f>
-        <v>0.42835716883382402</v>
-      </c>
-      <c r="I10" s="12">
+        <v>3.7145644184080402E-2</v>
+      </c>
+      <c r="I10" s="7">
         <f>SummaryTable_Class_wTotals!Q8</f>
-        <v>0.57164283116617498</v>
-      </c>
-      <c r="J10" s="11">
+        <v>0.96285435581591905</v>
+      </c>
+      <c r="J10" s="6">
         <f>SummaryTable_Class_wTotals!R8</f>
-        <v>0.48199335468113902</v>
-      </c>
-      <c r="K10" s="12">
+        <v>6.0419253513439498E-2</v>
+      </c>
+      <c r="K10" s="7">
         <f>SummaryTable_Class_wTotals!S8</f>
-        <v>0.51800664531885998</v>
+        <v>0.93958074648655998</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="23">
-        <v>39842.109024337602</v>
-      </c>
-      <c r="D11" s="26">
+      <c r="B11" s="23" t="str">
+        <f>SummaryTable_Class_wTotals!B24</f>
+        <v>City Center - LRT TOD</v>
+      </c>
+      <c r="C11" s="16">
+        <f>SummaryTable_Class_wTotals!C9</f>
+        <v>1078.01399597413</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="0"/>
+        <v>2.9636634360598914E-2</v>
+      </c>
+      <c r="E11" s="8">
+        <f>SummaryTable_Class_wTotals!M9</f>
+        <v>0.50580354474710199</v>
+      </c>
+      <c r="F11" s="5">
+        <f>SummaryTable_Class_wTotals!N9</f>
+        <v>0.149535348011227</v>
+      </c>
+      <c r="G11" s="9">
+        <f>SummaryTable_Class_wTotals!O9</f>
+        <v>0.34466110724166998</v>
+      </c>
+      <c r="H11" s="8">
+        <f>SummaryTable_Class_wTotals!P9</f>
+        <v>0.23880123409312101</v>
+      </c>
+      <c r="I11" s="9">
+        <f>SummaryTable_Class_wTotals!Q9</f>
+        <v>0.76119876590687796</v>
+      </c>
+      <c r="J11" s="8">
+        <f>SummaryTable_Class_wTotals!R9</f>
+        <v>0.295774626111724</v>
+      </c>
+      <c r="K11" s="9">
+        <f>SummaryTable_Class_wTotals!S9</f>
+        <v>0.704225373888275</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B25</f>
+        <v>City Center - No TOD</v>
+      </c>
+      <c r="C12" s="15">
+        <f>SummaryTable_Class_wTotals!C10</f>
+        <v>18949.018872781799</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.52094420473386793</v>
+      </c>
+      <c r="E12" s="6">
+        <f>SummaryTable_Class_wTotals!M10</f>
+        <v>0.61181353306202302</v>
+      </c>
+      <c r="F12" s="3">
+        <f>SummaryTable_Class_wTotals!N10</f>
+        <v>4.9696302055415899E-2</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SummaryTable_Class_wTotals!O10</f>
+        <v>0.33849016488256001</v>
+      </c>
+      <c r="H12" s="6">
+        <f>SummaryTable_Class_wTotals!P10</f>
+        <v>7.6907313903927299E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <f>SummaryTable_Class_wTotals!Q10</f>
+        <v>0.92309268609607198</v>
+      </c>
+      <c r="J12" s="6">
+        <f>SummaryTable_Class_wTotals!R10</f>
+        <v>0.114978224053234</v>
+      </c>
+      <c r="K12" s="7">
+        <f>SummaryTable_Class_wTotals!S10</f>
+        <v>0.88502177594676501</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="str">
+        <f>SummaryTable_Class_wTotals!B26</f>
+        <v>CRT TOD</v>
+      </c>
+      <c r="C13" s="16">
+        <f>SummaryTable_Class_wTotals!C11</f>
+        <v>1023.6709333539</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>2.8142641255754716E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <f>SummaryTable_Class_wTotals!M11</f>
+        <v>0.63009872257295896</v>
+      </c>
+      <c r="F13" s="5">
+        <f>SummaryTable_Class_wTotals!N11</f>
+        <v>5.0040256379603E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <f>SummaryTable_Class_wTotals!O11</f>
+        <v>0.31986102104743702</v>
+      </c>
+      <c r="H13" s="8">
+        <f>SummaryTable_Class_wTotals!P11</f>
+        <v>6.8098764815207893E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <f>SummaryTable_Class_wTotals!Q11</f>
+        <v>0.93190123518479195</v>
+      </c>
+      <c r="J13" s="8">
+        <f>SummaryTable_Class_wTotals!R11</f>
+        <v>0.12354183535109101</v>
+      </c>
+      <c r="K13" s="9">
+        <f>SummaryTable_Class_wTotals!S11</f>
+        <v>0.87645816464890802</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="str">
+        <f>SummaryTable_Class_wTotals!B27</f>
+        <v>LRT TOD</v>
+      </c>
+      <c r="C14" s="15">
+        <f>SummaryTable_Class_wTotals!C12</f>
+        <v>2975.0015262771599</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
+        <v>8.1788393087445357E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <f>SummaryTable_Class_wTotals!M12</f>
+        <v>0.71715067020525403</v>
+      </c>
+      <c r="F14" s="3">
+        <f>SummaryTable_Class_wTotals!N12</f>
+        <v>9.54147223883276E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <f>SummaryTable_Class_wTotals!O12</f>
+        <v>0.18743460740641699</v>
+      </c>
+      <c r="H14" s="6">
+        <f>SummaryTable_Class_wTotals!P12</f>
+        <v>0.21313770243546201</v>
+      </c>
+      <c r="I14" s="7">
+        <f>SummaryTable_Class_wTotals!Q12</f>
+        <v>0.78686229756453696</v>
+      </c>
+      <c r="J14" s="6">
+        <f>SummaryTable_Class_wTotals!R12</f>
+        <v>0.30025130994892701</v>
+      </c>
+      <c r="K14" s="7">
+        <f>SummaryTable_Class_wTotals!S12</f>
+        <v>0.69974869005107199</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17">
+        <f>SummaryTable_Class_wTotals!C13</f>
+        <v>36374.373110575601</v>
+      </c>
+      <c r="D15" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="15">
-        <f>SummaryTable_Class_wTotals!M9</f>
-        <v>0.48224227702306499</v>
-      </c>
-      <c r="F11" s="29">
-        <f>SummaryTable_Class_wTotals!N9</f>
-        <v>0.24428569436537201</v>
-      </c>
-      <c r="G11" s="16">
-        <f>SummaryTable_Class_wTotals!O9</f>
-        <v>0.273472028611562</v>
-      </c>
-      <c r="H11" s="15">
-        <f>SummaryTable_Class_wTotals!P9</f>
-        <v>0.41785642853022098</v>
-      </c>
-      <c r="I11" s="16">
-        <f>SummaryTable_Class_wTotals!Q9</f>
-        <v>0.58214357146977802</v>
-      </c>
-      <c r="J11" s="15">
-        <f>SummaryTable_Class_wTotals!R9</f>
-        <v>0.48550463303226499</v>
-      </c>
-      <c r="K11" s="16">
-        <f>SummaryTable_Class_wTotals!S9</f>
-        <v>0.51449536696773401</v>
+      <c r="E15" s="10">
+        <f>SummaryTable_Class_wTotals!M13</f>
+        <v>0.65358167875819195</v>
+      </c>
+      <c r="F15" s="21">
+        <f>SummaryTable_Class_wTotals!N13</f>
+        <v>5.9971437323341197E-2</v>
+      </c>
+      <c r="G15" s="11">
+        <f>SummaryTable_Class_wTotals!O13</f>
+        <v>0.28644688391846601</v>
+      </c>
+      <c r="H15" s="10">
+        <f>SummaryTable_Class_wTotals!P13</f>
+        <v>0.19641599775816601</v>
+      </c>
+      <c r="I15" s="11">
+        <f>SummaryTable_Class_wTotals!Q13</f>
+        <v>0.80358400224183302</v>
+      </c>
+      <c r="J15" s="10">
+        <f>SummaryTable_Class_wTotals!R13</f>
+        <v>0.22544547617087399</v>
+      </c>
+      <c r="K15" s="11">
+        <f>SummaryTable_Class_wTotals!S13</f>
+        <v>0.77455452382912504</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2200,10 +3267,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2BE52-68C6-4D80-8DF7-DA47D4994B3C}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,61 +3281,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -2276,58 +3343,58 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>623.61276045521799</v>
+        <v>250.74122081668401</v>
       </c>
       <c r="D2">
-        <v>64000</v>
+        <v>6700</v>
       </c>
       <c r="E2">
-        <v>144000</v>
+        <v>50400</v>
       </c>
       <c r="F2">
-        <v>80000</v>
+        <v>43700</v>
       </c>
       <c r="G2">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>54000</v>
+        <v>23200</v>
       </c>
       <c r="I2">
-        <v>50000</v>
+        <v>22200</v>
       </c>
       <c r="J2">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="K2">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="L2">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="M2">
-        <v>0.47939313289791102</v>
+        <v>0.55325948686538595</v>
       </c>
       <c r="N2">
-        <v>0.327532989639154</v>
+        <v>0.241245335705772</v>
       </c>
       <c r="O2">
-        <v>0.193073877462934</v>
+        <v>0.20549517742883999</v>
       </c>
       <c r="P2">
-        <v>0.528688624056461</v>
+        <v>0.53055347266442798</v>
       </c>
       <c r="Q2">
-        <v>0.471311375943539</v>
+        <v>0.46944652733557102</v>
       </c>
       <c r="R2">
-        <v>0.62202820729042596</v>
+        <v>0.53929311569784599</v>
       </c>
       <c r="S2">
-        <v>0.37797179270957298</v>
+        <v>0.46070688430215301</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2335,58 +3402,58 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>310.133582098771</v>
+        <v>383.25320028865502</v>
       </c>
       <c r="D3">
-        <v>10000</v>
+        <v>55600</v>
       </c>
       <c r="E3">
-        <v>28000</v>
+        <v>92400</v>
       </c>
       <c r="F3">
-        <v>18000</v>
+        <v>36800</v>
       </c>
       <c r="G3">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="H3">
-        <v>14000</v>
+        <v>21800</v>
       </c>
       <c r="I3">
-        <v>12000</v>
+        <v>18700</v>
       </c>
       <c r="J3">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="K3">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="L3">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="M3">
-        <v>0.48492570034529198</v>
+        <v>0.753732314846005</v>
       </c>
       <c r="N3">
-        <v>0.40020451800507101</v>
+        <v>6.7384564042488104E-2</v>
       </c>
       <c r="O3">
-        <v>0.114869781649635</v>
+        <v>0.178883121111506</v>
       </c>
       <c r="P3">
-        <v>0.72011166448382002</v>
+        <v>0.25883347171996401</v>
       </c>
       <c r="Q3">
-        <v>0.27988833551617898</v>
+        <v>0.74116652828003504</v>
       </c>
       <c r="R3">
-        <v>0.76534844601135199</v>
+        <v>0.27333980628789201</v>
       </c>
       <c r="S3">
-        <v>0.23465155398864701</v>
+        <v>0.72666019371210699</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2394,58 +3461,58 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>2194.3772177388601</v>
+        <v>299.47509924129901</v>
       </c>
       <c r="D4">
-        <v>57000</v>
+        <v>11400</v>
       </c>
       <c r="E4">
-        <v>208000</v>
+        <v>29300</v>
       </c>
       <c r="F4">
-        <v>151000</v>
+        <v>17900</v>
       </c>
       <c r="G4">
-        <v>10000</v>
+        <v>2300</v>
       </c>
       <c r="H4">
-        <v>94000</v>
+        <v>11900</v>
       </c>
       <c r="I4">
-        <v>84000</v>
+        <v>9600</v>
       </c>
       <c r="J4">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>138</v>
       </c>
       <c r="L4">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="M4">
-        <v>0.49713868158964902</v>
+        <v>0.64207706589538005</v>
       </c>
       <c r="N4">
-        <v>0.30445432195224398</v>
+        <v>0.23803215767529601</v>
       </c>
       <c r="O4">
-        <v>0.198406996458105</v>
+        <v>0.119890776429323</v>
       </c>
       <c r="P4">
-        <v>0.54609905193565</v>
+        <v>0.63993977774523303</v>
       </c>
       <c r="Q4">
-        <v>0.453900948064349</v>
+        <v>0.36006022225476603</v>
       </c>
       <c r="R4">
-        <v>0.59351494610320499</v>
+        <v>0.66253164784557395</v>
       </c>
       <c r="S4">
-        <v>0.40648505389679501</v>
+        <v>0.337468352154426</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2453,58 +3520,58 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>8840.6988329103297</v>
+        <v>1051.5777033465199</v>
       </c>
       <c r="D5">
-        <v>134000</v>
+        <v>21400</v>
       </c>
       <c r="E5">
-        <v>469000</v>
+        <v>57200</v>
       </c>
       <c r="F5">
-        <v>335000</v>
+        <v>35800</v>
       </c>
       <c r="G5">
-        <v>22000</v>
+        <v>1600</v>
       </c>
       <c r="H5">
-        <v>203000</v>
+        <v>19900</v>
       </c>
       <c r="I5">
-        <v>181000</v>
+        <v>18300</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L5">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M5">
-        <v>0.56270828696115205</v>
+        <v>0.70341579820519895</v>
       </c>
       <c r="N5">
-        <v>0.219823273954034</v>
+        <v>5.6391981262524302E-2</v>
       </c>
       <c r="O5">
-        <v>0.217468439084813</v>
+        <v>0.24019222053227601</v>
       </c>
       <c r="P5">
-        <v>0.44218617478523897</v>
+        <v>0.17267996287690901</v>
       </c>
       <c r="Q5">
-        <v>0.55781382521475997</v>
+        <v>0.82732003712308999</v>
       </c>
       <c r="R5">
-        <v>0.48430776491135902</v>
+        <v>0.18691256346070301</v>
       </c>
       <c r="S5">
-        <v>0.51569223508864004</v>
+        <v>0.81308743653929605</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2512,58 +3579,58 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>2463.1278627243</v>
+        <v>535.79840902352703</v>
       </c>
       <c r="D6">
-        <v>30000</v>
+        <v>13500</v>
       </c>
       <c r="E6">
-        <v>112000</v>
+        <v>28700</v>
       </c>
       <c r="F6">
-        <v>82000</v>
+        <v>15200</v>
       </c>
       <c r="G6">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="H6">
-        <v>53000</v>
+        <v>11300</v>
       </c>
       <c r="I6">
-        <v>48000</v>
+        <v>8300</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>0.377064250641514</v>
+        <v>0.73517277302125295</v>
       </c>
       <c r="N6">
-        <v>0.31673692358708999</v>
+        <v>9.7396278829744803E-2</v>
       </c>
       <c r="O6">
-        <v>0.30619882577139401</v>
+        <v>0.167430948149001</v>
       </c>
       <c r="P6">
-        <v>0.41073737817657202</v>
+        <v>0.31055034603794002</v>
       </c>
       <c r="Q6">
-        <v>0.58926262182342704</v>
+        <v>0.68944965396205904</v>
       </c>
       <c r="R6">
-        <v>0.49643504023486701</v>
+        <v>0.36540143054320801</v>
       </c>
       <c r="S6">
-        <v>0.50356495976513205</v>
+        <v>0.63459856945679105</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2571,58 +3638,58 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <v>18267.519644245302</v>
+        <v>9447.7867901936297</v>
       </c>
       <c r="D7">
-        <v>149000</v>
+        <v>156700</v>
       </c>
       <c r="E7">
-        <v>428000</v>
+        <v>323100</v>
       </c>
       <c r="F7">
-        <v>279000</v>
+        <v>166400</v>
       </c>
       <c r="G7">
-        <v>31000</v>
+        <v>27200</v>
       </c>
       <c r="H7">
-        <v>192000</v>
+        <v>97400</v>
       </c>
       <c r="I7">
-        <v>161000</v>
+        <v>70200</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>0.424534101297804</v>
+        <v>0.73807658061037795</v>
       </c>
       <c r="N7">
-        <v>0.22633613644054101</v>
+        <v>4.8587317171154103E-2</v>
       </c>
       <c r="O7">
-        <v>0.34912976226165399</v>
+        <v>0.21333610221846699</v>
       </c>
       <c r="P7">
-        <v>0.26790377330207998</v>
+        <v>0.16226044266088399</v>
       </c>
       <c r="Q7">
-        <v>0.73209622669791896</v>
+        <v>0.83773955733911498</v>
       </c>
       <c r="R7">
-        <v>0.36593559146460303</v>
+        <v>0.17301672768186099</v>
       </c>
       <c r="S7">
-        <v>0.63406440853539603</v>
+        <v>0.82698327231813795</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2630,58 +3697,58 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>7142.6391241648398</v>
+        <v>380.03535927827699</v>
       </c>
       <c r="D8">
-        <v>76000</v>
+        <v>1300</v>
       </c>
       <c r="E8">
-        <v>118000</v>
+        <v>13800</v>
       </c>
       <c r="F8">
-        <v>42000</v>
+        <v>12500</v>
       </c>
       <c r="G8">
-        <v>23000</v>
+        <v>200</v>
       </c>
       <c r="H8">
-        <v>46000</v>
+        <v>6600</v>
       </c>
       <c r="I8">
-        <v>23000</v>
+        <v>6400</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>0.56206327919053301</v>
+        <v>0.341768083148071</v>
       </c>
       <c r="N8">
-        <v>0.26296222909953298</v>
+        <v>4.0296866940982001E-2</v>
       </c>
       <c r="O8">
-        <v>0.17497449170993301</v>
+        <v>0.61793504991094605</v>
       </c>
       <c r="P8">
-        <v>0.42835716883382402</v>
+        <v>3.7145644184080402E-2</v>
       </c>
       <c r="Q8">
-        <v>0.57164283116617498</v>
+        <v>0.96285435581591905</v>
       </c>
       <c r="R8">
-        <v>0.48199335468113902</v>
+        <v>6.0419253513439498E-2</v>
       </c>
       <c r="S8">
-        <v>0.51800664531885998</v>
+        <v>0.93958074648655998</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2689,58 +3756,346 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>39842.109024337602</v>
+        <v>1078.01399597413</v>
       </c>
       <c r="D9">
-        <v>520000</v>
+        <v>12500</v>
       </c>
       <c r="E9">
-        <v>1508000</v>
+        <v>37400</v>
       </c>
       <c r="F9">
-        <v>988000</v>
+        <v>24900</v>
       </c>
       <c r="G9">
-        <v>97000</v>
+        <v>2100</v>
       </c>
       <c r="H9">
-        <v>656000</v>
+        <v>15600</v>
       </c>
       <c r="I9">
-        <v>559000</v>
+        <v>13500</v>
       </c>
       <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>49</v>
+      </c>
+      <c r="L9">
+        <v>36</v>
+      </c>
+      <c r="M9">
+        <v>0.50580354474710199</v>
+      </c>
+      <c r="N9">
+        <v>0.149535348011227</v>
+      </c>
+      <c r="O9">
+        <v>0.34466110724166998</v>
+      </c>
+      <c r="P9">
+        <v>0.23880123409312101</v>
+      </c>
+      <c r="Q9">
+        <v>0.76119876590687796</v>
+      </c>
+      <c r="R9">
+        <v>0.295774626111724</v>
+      </c>
+      <c r="S9">
+        <v>0.704225373888275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>18949.018872781799</v>
+      </c>
+      <c r="D10">
+        <v>163200</v>
+      </c>
+      <c r="E10">
+        <v>318300</v>
+      </c>
+      <c r="F10">
+        <v>155100</v>
+      </c>
+      <c r="G10">
+        <v>33300</v>
+      </c>
+      <c r="H10">
+        <v>114200</v>
+      </c>
+      <c r="I10">
+        <v>80900</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>0.61181353306202302</v>
+      </c>
+      <c r="N10">
+        <v>4.9696302055415899E-2</v>
+      </c>
+      <c r="O10">
+        <v>0.33849016488256001</v>
+      </c>
+      <c r="P10">
+        <v>7.6907313903927299E-2</v>
+      </c>
+      <c r="Q10">
+        <v>0.92309268609607198</v>
+      </c>
+      <c r="R10">
+        <v>0.114978224053234</v>
+      </c>
+      <c r="S10">
+        <v>0.88502177594676501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>1023.6709333539</v>
+      </c>
+      <c r="D11">
+        <v>4200</v>
+      </c>
+      <c r="E11">
+        <v>10500</v>
+      </c>
+      <c r="F11">
+        <v>6300</v>
+      </c>
+      <c r="G11">
+        <v>2000</v>
+      </c>
+      <c r="H11">
+        <v>5300</v>
+      </c>
+      <c r="I11">
+        <v>3300</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>0.63009872257295896</v>
+      </c>
+      <c r="N11">
+        <v>5.0040256379603E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.31986102104743702</v>
+      </c>
+      <c r="P11">
+        <v>6.8098764815207893E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0.93190123518479195</v>
+      </c>
+      <c r="R11">
+        <v>0.12354183535109101</v>
+      </c>
+      <c r="S11">
+        <v>0.87645816464890802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>2975.0015262771599</v>
+      </c>
+      <c r="D12">
+        <v>37500</v>
+      </c>
+      <c r="E12">
+        <v>50300</v>
+      </c>
+      <c r="F12">
+        <v>12800</v>
+      </c>
+      <c r="G12">
+        <v>8200</v>
+      </c>
+      <c r="H12">
+        <v>15400</v>
+      </c>
+      <c r="I12">
+        <v>7200</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>0.71715067020525403</v>
+      </c>
+      <c r="N12">
+        <v>9.54147223883276E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.18743460740641699</v>
+      </c>
+      <c r="P12">
+        <v>0.21313770243546201</v>
+      </c>
+      <c r="Q12">
+        <v>0.78686229756453696</v>
+      </c>
+      <c r="R12">
+        <v>0.30025130994892701</v>
+      </c>
+      <c r="S12">
+        <v>0.69974869005107199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <v>36374.373110575601</v>
+      </c>
+      <c r="D13">
+        <v>483900</v>
+      </c>
+      <c r="E13">
+        <v>1011400</v>
+      </c>
+      <c r="F13">
+        <v>527500</v>
+      </c>
+      <c r="G13">
+        <v>84000</v>
+      </c>
+      <c r="H13">
+        <v>342600</v>
+      </c>
+      <c r="I13">
+        <v>258600</v>
+      </c>
+      <c r="J13">
         <v>16</v>
       </c>
-      <c r="K9">
+      <c r="K13">
+        <v>37</v>
+      </c>
+      <c r="L13">
+        <v>21</v>
+      </c>
+      <c r="M13">
+        <v>0.65358167875819195</v>
+      </c>
+      <c r="N13">
+        <v>5.9971437323341197E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.28644688391846601</v>
+      </c>
+      <c r="P13">
+        <v>0.19641599775816601</v>
+      </c>
+      <c r="Q13">
+        <v>0.80358400224183302</v>
+      </c>
+      <c r="R13">
+        <v>0.22544547617087399</v>
+      </c>
+      <c r="S13">
+        <v>0.77455452382912504</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="L9">
-        <v>38</v>
-      </c>
-      <c r="M9">
-        <v>0.48224227702306499</v>
-      </c>
-      <c r="N9">
-        <v>0.24428569436537201</v>
-      </c>
-      <c r="O9">
-        <v>0.273472028611562</v>
-      </c>
-      <c r="P9">
-        <v>0.41785642853022098</v>
-      </c>
-      <c r="Q9">
-        <v>0.58214357146977802</v>
-      </c>
-      <c r="R9">
-        <v>0.48550463303226499</v>
-      </c>
-      <c r="S9">
-        <v>0.51449536696773401</v>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/results/SummaryTable_Class_wTotals_formatted.xlsx
+++ b/results/SummaryTable_Class_wTotals_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A718CAB5-1059-4530-8767-FBC70DA322AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F5195-2BD3-4D33-A53D-0141D1D721EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,13 +937,10 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -952,10 +949,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,10 +1343,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="48" t="s">
@@ -1355,27 +1355,27 @@
       <c r="E2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="41" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="41" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="49"/>
-      <c r="E3" s="45"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="35" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="E4" s="12">
         <f>(H4+K4)/($H$15+$K$15)</f>
-        <v>8.3831573591146166E-2</v>
+        <v>8.2418984434804804E-2</v>
       </c>
       <c r="F4" s="29">
         <f>SummaryTable_Class_wTotals!D2</f>
@@ -1427,11 +1427,11 @@
       </c>
       <c r="G4" s="2">
         <f>SummaryTable_Class_wTotals!E2</f>
-        <v>50400</v>
+        <v>49500</v>
       </c>
       <c r="H4" s="37">
         <f>SummaryTable_Class_wTotals!F2</f>
-        <v>43700</v>
+        <v>42800</v>
       </c>
       <c r="I4" s="29">
         <f>SummaryTable_Class_wTotals!G2</f>
@@ -1439,11 +1439,11 @@
       </c>
       <c r="J4" s="2">
         <f>SummaryTable_Class_wTotals!H2</f>
-        <v>23200</v>
+        <v>22800</v>
       </c>
       <c r="K4" s="37">
         <f>SummaryTable_Class_wTotals!I2</f>
-        <v>22200</v>
+        <v>21800</v>
       </c>
       <c r="L4" s="29">
         <f>SummaryTable_Class_wTotals!J2</f>
@@ -1451,11 +1451,11 @@
       </c>
       <c r="M4" s="2">
         <f>SummaryTable_Class_wTotals!K2</f>
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="N4" s="37">
         <f>SummaryTable_Class_wTotals!L2</f>
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="E5" s="13">
         <f t="shared" ref="E5:E15" si="1">(H5+K5)/($H$15+$K$15)</f>
-        <v>7.0601704617733116E-2</v>
+        <v>7.0298545547333502E-2</v>
       </c>
       <c r="F5" s="31">
         <f>SummaryTable_Class_wTotals!D3</f>
@@ -1481,11 +1481,11 @@
       </c>
       <c r="G5" s="4">
         <f>SummaryTable_Class_wTotals!E3</f>
-        <v>92400</v>
+        <v>92100</v>
       </c>
       <c r="H5" s="38">
         <f>SummaryTable_Class_wTotals!F3</f>
-        <v>36800</v>
+        <v>36500</v>
       </c>
       <c r="I5" s="31">
         <f>SummaryTable_Class_wTotals!G3</f>
@@ -1493,11 +1493,11 @@
       </c>
       <c r="J5" s="4">
         <f>SummaryTable_Class_wTotals!H3</f>
-        <v>21800</v>
+        <v>21700</v>
       </c>
       <c r="K5" s="38">
         <f>SummaryTable_Class_wTotals!I3</f>
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="L5" s="31">
         <f>SummaryTable_Class_wTotals!J3</f>
@@ -1505,11 +1505,11 @@
       </c>
       <c r="M5" s="4">
         <f>SummaryTable_Class_wTotals!K3</f>
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N5" s="38">
         <f>SummaryTable_Class_wTotals!L3</f>
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E6" s="12">
         <f t="shared" si="1"/>
-        <v>3.4982826612390279E-2</v>
+        <v>3.4447563153865782E-2</v>
       </c>
       <c r="F6" s="29">
         <f>SummaryTable_Class_wTotals!D4</f>
@@ -1535,11 +1535,11 @@
       </c>
       <c r="G6" s="2">
         <f>SummaryTable_Class_wTotals!E4</f>
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="H6" s="37">
         <f>SummaryTable_Class_wTotals!F4</f>
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="I6" s="29">
         <f>SummaryTable_Class_wTotals!G4</f>
@@ -1547,11 +1547,11 @@
       </c>
       <c r="J6" s="2">
         <f>SummaryTable_Class_wTotals!H4</f>
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="K6" s="37">
         <f>SummaryTable_Class_wTotals!I4</f>
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="L6" s="29">
         <f>SummaryTable_Class_wTotals!J4</f>
@@ -1559,11 +1559,11 @@
       </c>
       <c r="M6" s="2">
         <f>SummaryTable_Class_wTotals!K4</f>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N6" s="37">
         <f>SummaryTable_Class_wTotals!L4</f>
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E7" s="13">
         <f t="shared" si="1"/>
-        <v>6.882076071746597E-2</v>
+        <v>6.90227098749681E-2</v>
       </c>
       <c r="F7" s="31">
         <f>SummaryTable_Class_wTotals!D5</f>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="E8" s="12">
         <f t="shared" si="1"/>
-        <v>2.9894415468769878E-2</v>
+        <v>2.9982138300586884E-2</v>
       </c>
       <c r="F8" s="29">
         <f>SummaryTable_Class_wTotals!D6</f>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E9" s="13">
         <f t="shared" si="1"/>
-        <v>0.30097951914514692</v>
+        <v>0.30186272008165349</v>
       </c>
       <c r="F9" s="31">
         <f>SummaryTable_Class_wTotals!D7</f>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E10" s="12">
         <f t="shared" si="1"/>
-        <v>2.4042742653606411E-2</v>
+        <v>2.4113294207706047E-2</v>
       </c>
       <c r="F10" s="29">
         <f>SummaryTable_Class_wTotals!D8</f>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E11" s="13">
         <f t="shared" si="1"/>
-        <v>4.884874697875588E-2</v>
+        <v>4.8992089818831332E-2</v>
       </c>
       <c r="F11" s="31">
         <f>SummaryTable_Class_wTotals!D9</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="E12" s="12">
         <f t="shared" si="1"/>
-        <v>0.30021625747360386</v>
+        <v>0.30109721867823425</v>
       </c>
       <c r="F12" s="29">
         <f>SummaryTable_Class_wTotals!D10</f>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="E13" s="13">
         <f t="shared" si="1"/>
-        <v>1.221218674468897E-2</v>
+        <v>1.2248022454707833E-2</v>
       </c>
       <c r="F13" s="31">
         <f>SummaryTable_Class_wTotals!D11</f>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="E14" s="12">
         <f t="shared" si="1"/>
-        <v>2.5442055718102024E-2</v>
+        <v>2.5516713447307986E-2</v>
       </c>
       <c r="F14" s="29">
         <f>SummaryTable_Class_wTotals!D12</f>
@@ -2020,11 +2020,11 @@
       </c>
       <c r="G15" s="39">
         <f>SummaryTable_Class_wTotals!E13</f>
-        <v>1011400</v>
+        <v>1009900</v>
       </c>
       <c r="H15" s="40">
         <f>SummaryTable_Class_wTotals!F13</f>
-        <v>527500</v>
+        <v>526000</v>
       </c>
       <c r="I15" s="33">
         <f>SummaryTable_Class_wTotals!G13</f>
@@ -2032,11 +2032,11 @@
       </c>
       <c r="J15" s="39">
         <f>SummaryTable_Class_wTotals!H13</f>
-        <v>342600</v>
+        <v>341800</v>
       </c>
       <c r="K15" s="40">
         <f>SummaryTable_Class_wTotals!I13</f>
-        <v>258600</v>
+        <v>257800</v>
       </c>
       <c r="L15" s="33">
         <f>SummaryTable_Class_wTotals!J13</f>
@@ -2052,10 +2052,10 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="48" t="s">
@@ -2064,27 +2064,27 @@
       <c r="E18" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="41" t="s">
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="41" t="s">
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="47"/>
     </row>
     <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="49"/>
-      <c r="E19" s="45"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="35" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="E20" s="12">
         <f>(H20+K20)/($H$15+$K$15)</f>
-        <v>0.18941610482126955</v>
+        <v>0.18716509313600407</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ref="F20:K20" si="2">F4+F5+F6</f>
@@ -2135,11 +2135,11 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>172100</v>
+        <v>170600</v>
       </c>
       <c r="H20" s="37">
         <f t="shared" si="2"/>
-        <v>98400</v>
+        <v>96900</v>
       </c>
       <c r="I20" s="29">
         <f t="shared" si="2"/>
@@ -2147,11 +2147,11 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>56900</v>
+        <v>56200</v>
       </c>
       <c r="K20" s="37">
         <f t="shared" si="2"/>
-        <v>50500</v>
+        <v>49800</v>
       </c>
       <c r="L20" s="29">
         <f>(F20+I20)/$C20</f>
@@ -2159,11 +2159,11 @@
       </c>
       <c r="M20" s="2">
         <f t="shared" ref="M20:N20" si="3">(G20+J20)/$C20</f>
-        <v>245.32134687693099</v>
+        <v>242.96454791130108</v>
       </c>
       <c r="N20" s="37">
         <f t="shared" si="3"/>
-        <v>159.51243908286037</v>
+        <v>157.15564011723046</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E21" s="13">
         <f>(H21+K21)/($H$15+$K$15)</f>
-        <v>0.3996946953313828</v>
+        <v>0.40086756825720848</v>
       </c>
       <c r="F21" s="31">
         <f t="shared" ref="F21:K21" si="5">F7+F8+F9</f>
@@ -2207,15 +2207,15 @@
         <v>96800</v>
       </c>
       <c r="L21" s="31">
-        <f t="shared" ref="L21:L24" si="6">(F21+I21)/$C21</f>
+        <f t="shared" ref="L21:L23" si="6">(F21+I21)/$C21</f>
         <v>20.244377176171998</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" ref="M21:M24" si="7">(G21+J21)/$C21</f>
+        <f t="shared" ref="M21:M23" si="7">(G21+J21)/$C21</f>
         <v>48.716997179543711</v>
       </c>
       <c r="N21" s="38">
-        <f t="shared" ref="N21:N24" si="8">(H21+K21)/$C21</f>
+        <f t="shared" ref="N21:N23" si="8">(H21+K21)/$C21</f>
         <v>28.472620003371716</v>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="E22" s="12">
         <f t="shared" ref="E22:E24" si="9">(H22+K22)/($H$15+$K$15)</f>
-        <v>0.37310774710596617</v>
+        <v>0.37420260270477163</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ref="F22:K22" si="10">F10+F11+F12</f>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E23" s="13">
         <f t="shared" si="9"/>
-        <v>3.7654242462790991E-2</v>
+        <v>3.7764735902015824E-2</v>
       </c>
       <c r="F23" s="31">
         <f t="shared" ref="F23:K23" si="11">F13+F14</f>
@@ -2347,11 +2347,11 @@
       </c>
       <c r="G24" s="39">
         <f t="shared" si="12"/>
-        <v>1011400</v>
+        <v>1009900</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="12"/>
-        <v>527500</v>
+        <v>526000</v>
       </c>
       <c r="I24" s="33">
         <f t="shared" si="12"/>
@@ -2359,11 +2359,11 @@
       </c>
       <c r="J24" s="39">
         <f t="shared" si="12"/>
-        <v>342600</v>
+        <v>341800</v>
       </c>
       <c r="K24" s="40">
         <f t="shared" si="12"/>
-        <v>258600</v>
+        <v>257800</v>
       </c>
       <c r="L24" s="33">
         <f t="shared" si="12"/>
@@ -2379,10 +2379,10 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -2391,27 +2391,27 @@
       <c r="E27" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="41" t="s">
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="41" t="s">
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="49"/>
-      <c r="E28" s="45"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="35" t="s">
         <v>7</v>
       </c>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E29" s="12">
         <f>(H29+K29)/($H$15+$K$15)</f>
-        <v>0.18890726370690752</v>
+        <v>0.1878030109721868</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ref="F29:K29" si="13">F4+F7+F10+F13</f>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="13"/>
-        <v>131900</v>
+        <v>131000</v>
       </c>
       <c r="H29" s="37">
         <f t="shared" si="13"/>
-        <v>98300</v>
+        <v>97400</v>
       </c>
       <c r="I29" s="29">
         <f t="shared" si="13"/>
@@ -2474,23 +2474,23 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="13"/>
-        <v>55000</v>
+        <v>54600</v>
       </c>
       <c r="K29" s="37">
         <f t="shared" si="13"/>
-        <v>50200</v>
+        <v>49800</v>
       </c>
       <c r="L29" s="29">
         <f>(F29+I29)/$C29</f>
         <v>14.190555121831173</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" ref="M29:M32" si="14">(G29+J29)/$C29</f>
-        <v>69.068092507037662</v>
+        <f t="shared" ref="M29:M31" si="14">(G29+J29)/$C29</f>
+        <v>68.587683088850667</v>
       </c>
       <c r="N29" s="37">
-        <f t="shared" ref="N29:N32" si="15">(H29+K29)/$C29</f>
-        <v>54.877537385206487</v>
+        <f t="shared" ref="N29:N31" si="15">(H29+K29)/$C29</f>
+        <v>54.397127967019493</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="E30" s="13">
         <f>(H30+K30)/($H$15+$K$15)</f>
-        <v>0.17478692278336089</v>
+        <v>0.1747894871140597</v>
       </c>
       <c r="F30" s="31">
         <f t="shared" ref="F30:K30" si="17">F5+F8+F11+F14</f>
@@ -2515,11 +2515,11 @@
       </c>
       <c r="G30" s="4">
         <f t="shared" si="17"/>
-        <v>208800</v>
+        <v>208500</v>
       </c>
       <c r="H30" s="38">
         <f t="shared" si="17"/>
-        <v>89700</v>
+        <v>89400</v>
       </c>
       <c r="I30" s="31">
         <f t="shared" si="17"/>
@@ -2527,23 +2527,23 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" si="17"/>
-        <v>64100</v>
+        <v>64000</v>
       </c>
       <c r="K30" s="38">
         <f t="shared" si="17"/>
-        <v>47700</v>
+        <v>47600</v>
       </c>
       <c r="L30" s="31">
-        <f t="shared" ref="L30:L32" si="18">(F30+I30)/$C30</f>
+        <f t="shared" ref="L30:L31" si="18">(F30+I30)/$C30</f>
         <v>27.252246684246174</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="14"/>
-        <v>54.886628192847091</v>
+        <v>54.806178756140824</v>
       </c>
       <c r="N30" s="38">
         <f t="shared" si="15"/>
-        <v>27.634381508600917</v>
+        <v>27.553932071894653</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E31" s="12">
         <f t="shared" ref="E31:E32" si="19">(H31+K31)/($H$15+$K$15)</f>
-        <v>0.63617860323114106</v>
+        <v>0.6374075019137535</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ref="F31:K31" si="20">F6+F9+F12</f>
@@ -2568,11 +2568,11 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="20"/>
-        <v>670700</v>
+        <v>670400</v>
       </c>
       <c r="H31" s="37">
         <f t="shared" si="20"/>
-        <v>339400</v>
+        <v>339100</v>
       </c>
       <c r="I31" s="29">
         <f t="shared" si="20"/>
@@ -2580,11 +2580,11 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="20"/>
-        <v>223500</v>
+        <v>223300</v>
       </c>
       <c r="K31" s="37">
         <f t="shared" si="20"/>
-        <v>160700</v>
+        <v>160500</v>
       </c>
       <c r="L31" s="29">
         <f t="shared" si="18"/>
@@ -2592,11 +2592,11 @@
       </c>
       <c r="M31" s="2">
         <f t="shared" si="14"/>
-        <v>31.160832562572299</v>
+        <v>31.143408701823823</v>
       </c>
       <c r="N31" s="37">
         <f t="shared" si="15"/>
-        <v>17.427345520624474</v>
+        <v>17.409921659876002</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -2621,11 +2621,11 @@
       </c>
       <c r="G32" s="39">
         <f t="shared" si="21"/>
-        <v>1011400</v>
+        <v>1009900</v>
       </c>
       <c r="H32" s="40">
         <f t="shared" si="21"/>
-        <v>527500</v>
+        <v>526000</v>
       </c>
       <c r="I32" s="33">
         <f t="shared" si="21"/>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="J32" s="39">
         <f t="shared" si="21"/>
-        <v>342600</v>
+        <v>341800</v>
       </c>
       <c r="K32" s="40">
         <f t="shared" si="21"/>
-        <v>258600</v>
+        <v>257800</v>
       </c>
       <c r="L32" s="33">
         <f t="shared" si="21"/>
@@ -2654,13 +2654,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="B27:B28"/>
@@ -2675,6 +2668,13 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2699,10 +2699,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="51" t="s">
@@ -2723,9 +2723,9 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="25" t="s">
         <v>33</v>
       </c>
@@ -2763,11 +2763,11 @@
       </c>
       <c r="E4" s="6">
         <f>SummaryTable_Class_wTotals!M2</f>
-        <v>0.55325948686538595</v>
+        <v>0.56234050665089597</v>
       </c>
       <c r="F4" s="3">
         <f>SummaryTable_Class_wTotals!N2</f>
-        <v>0.241245335705772</v>
+        <v>0.23216431592026299</v>
       </c>
       <c r="G4" s="7">
         <f>SummaryTable_Class_wTotals!O2</f>
@@ -2775,19 +2775,19 @@
       </c>
       <c r="H4" s="6">
         <f>SummaryTable_Class_wTotals!P2</f>
-        <v>0.53055347266442798</v>
+        <v>0.52096799594106302</v>
       </c>
       <c r="I4" s="7">
         <f>SummaryTable_Class_wTotals!Q2</f>
-        <v>0.46944652733557102</v>
+        <v>0.47903200405893598</v>
       </c>
       <c r="J4" s="6">
         <f>SummaryTable_Class_wTotals!R2</f>
-        <v>0.53929311569784599</v>
+        <v>0.52980789576932397</v>
       </c>
       <c r="K4" s="7">
         <f>SummaryTable_Class_wTotals!S2</f>
-        <v>0.46070688430215301</v>
+        <v>0.47019210423067498</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -2805,11 +2805,11 @@
       </c>
       <c r="E5" s="8">
         <f>SummaryTable_Class_wTotals!M3</f>
-        <v>0.753732314846005</v>
+        <v>0.75610786350745396</v>
       </c>
       <c r="F5" s="5">
         <f>SummaryTable_Class_wTotals!N3</f>
-        <v>6.7384564042488104E-2</v>
+        <v>6.5009015381038801E-2</v>
       </c>
       <c r="G5" s="9">
         <f>SummaryTable_Class_wTotals!O3</f>
@@ -2817,19 +2817,19 @@
       </c>
       <c r="H5" s="8">
         <f>SummaryTable_Class_wTotals!P3</f>
-        <v>0.25883347171996401</v>
+        <v>0.252528201494857</v>
       </c>
       <c r="I5" s="9">
         <f>SummaryTable_Class_wTotals!Q3</f>
-        <v>0.74116652828003504</v>
+        <v>0.747471798505142</v>
       </c>
       <c r="J5" s="8">
         <f>SummaryTable_Class_wTotals!R3</f>
-        <v>0.27333980628789201</v>
+        <v>0.266320237231221</v>
       </c>
       <c r="K5" s="9">
         <f>SummaryTable_Class_wTotals!S3</f>
-        <v>0.72666019371210699</v>
+        <v>0.733679762768779</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -2847,11 +2847,11 @@
       </c>
       <c r="E6" s="6">
         <f>SummaryTable_Class_wTotals!M4</f>
-        <v>0.64207706589538005</v>
+        <v>0.64887076252914699</v>
       </c>
       <c r="F6" s="3">
         <f>SummaryTable_Class_wTotals!N4</f>
-        <v>0.23803215767529601</v>
+        <v>0.23123846104152801</v>
       </c>
       <c r="G6" s="7">
         <f>SummaryTable_Class_wTotals!O4</f>
@@ -2859,19 +2859,19 @@
       </c>
       <c r="H6" s="6">
         <f>SummaryTable_Class_wTotals!P4</f>
-        <v>0.63993977774523303</v>
+        <v>0.63343537124846905</v>
       </c>
       <c r="I6" s="7">
         <f>SummaryTable_Class_wTotals!Q4</f>
-        <v>0.36006022225476603</v>
+        <v>0.36656462875153001</v>
       </c>
       <c r="J6" s="6">
         <f>SummaryTable_Class_wTotals!R4</f>
-        <v>0.66253164784557395</v>
+        <v>0.65618141578857603</v>
       </c>
       <c r="K6" s="7">
         <f>SummaryTable_Class_wTotals!S4</f>
-        <v>0.337468352154426</v>
+        <v>0.34381858421142297</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -3224,11 +3224,11 @@
       </c>
       <c r="E15" s="10">
         <f>SummaryTable_Class_wTotals!M13</f>
-        <v>0.65358167875819195</v>
+        <v>0.65372524042376201</v>
       </c>
       <c r="F15" s="21">
         <f>SummaryTable_Class_wTotals!N13</f>
-        <v>5.9971437323341197E-2</v>
+        <v>5.9827875657770799E-2</v>
       </c>
       <c r="G15" s="11">
         <f>SummaryTable_Class_wTotals!O13</f>
@@ -3236,19 +3236,19 @@
       </c>
       <c r="H15" s="10">
         <f>SummaryTable_Class_wTotals!P13</f>
-        <v>0.19641599775816601</v>
+        <v>0.194119746530757</v>
       </c>
       <c r="I15" s="11">
         <f>SummaryTable_Class_wTotals!Q13</f>
-        <v>0.80358400224183302</v>
+        <v>0.80588025346924197</v>
       </c>
       <c r="J15" s="10">
         <f>SummaryTable_Class_wTotals!R13</f>
-        <v>0.22544547617087399</v>
+        <v>0.22302547624180799</v>
       </c>
       <c r="K15" s="11">
         <f>SummaryTable_Class_wTotals!S13</f>
-        <v>0.77455452382912504</v>
+        <v>0.77697452375819098</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3270,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,49 +3352,49 @@
         <v>6700</v>
       </c>
       <c r="E2">
-        <v>50400</v>
+        <v>49500</v>
       </c>
       <c r="F2">
-        <v>43700</v>
+        <v>42800</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2">
-        <v>23200</v>
+        <v>22800</v>
       </c>
       <c r="I2">
-        <v>22200</v>
+        <v>21800</v>
       </c>
       <c r="J2">
         <v>31</v>
       </c>
       <c r="K2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M2">
-        <v>0.55325948686538595</v>
+        <v>0.56234050665089597</v>
       </c>
       <c r="N2">
-        <v>0.241245335705772</v>
+        <v>0.23216431592026299</v>
       </c>
       <c r="O2">
         <v>0.20549517742883999</v>
       </c>
       <c r="P2">
-        <v>0.53055347266442798</v>
+        <v>0.52096799594106302</v>
       </c>
       <c r="Q2">
-        <v>0.46944652733557102</v>
+        <v>0.47903200405893598</v>
       </c>
       <c r="R2">
-        <v>0.53929311569784599</v>
+        <v>0.52980789576932397</v>
       </c>
       <c r="S2">
-        <v>0.46070688430215301</v>
+        <v>0.47019210423067498</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -3411,49 +3411,49 @@
         <v>55600</v>
       </c>
       <c r="E3">
-        <v>92400</v>
+        <v>92100</v>
       </c>
       <c r="F3">
-        <v>36800</v>
+        <v>36500</v>
       </c>
       <c r="G3">
         <v>3100</v>
       </c>
       <c r="H3">
-        <v>21800</v>
+        <v>21700</v>
       </c>
       <c r="I3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="J3">
         <v>153</v>
       </c>
       <c r="K3">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L3">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M3">
-        <v>0.753732314846005</v>
+        <v>0.75610786350745396</v>
       </c>
       <c r="N3">
-        <v>6.7384564042488104E-2</v>
+        <v>6.5009015381038801E-2</v>
       </c>
       <c r="O3">
         <v>0.178883121111506</v>
       </c>
       <c r="P3">
-        <v>0.25883347171996401</v>
+        <v>0.252528201494857</v>
       </c>
       <c r="Q3">
-        <v>0.74116652828003504</v>
+        <v>0.747471798505142</v>
       </c>
       <c r="R3">
-        <v>0.27333980628789201</v>
+        <v>0.266320237231221</v>
       </c>
       <c r="S3">
-        <v>0.72666019371210699</v>
+        <v>0.733679762768779</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -3470,49 +3470,49 @@
         <v>11400</v>
       </c>
       <c r="E4">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="F4">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="G4">
         <v>2300</v>
       </c>
       <c r="H4">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="I4">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="J4">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L4">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M4">
-        <v>0.64207706589538005</v>
+        <v>0.64887076252914699</v>
       </c>
       <c r="N4">
-        <v>0.23803215767529601</v>
+        <v>0.23123846104152801</v>
       </c>
       <c r="O4">
         <v>0.119890776429323</v>
       </c>
       <c r="P4">
-        <v>0.63993977774523303</v>
+        <v>0.63343537124846905</v>
       </c>
       <c r="Q4">
-        <v>0.36006022225476603</v>
+        <v>0.36656462875153001</v>
       </c>
       <c r="R4">
-        <v>0.66253164784557395</v>
+        <v>0.65618141578857603</v>
       </c>
       <c r="S4">
-        <v>0.337468352154426</v>
+        <v>0.34381858421142297</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -3998,19 +3998,19 @@
         <v>483900</v>
       </c>
       <c r="E13">
-        <v>1011400</v>
+        <v>1009900</v>
       </c>
       <c r="F13">
-        <v>527500</v>
+        <v>526000</v>
       </c>
       <c r="G13">
         <v>84000</v>
       </c>
       <c r="H13">
-        <v>342600</v>
+        <v>341800</v>
       </c>
       <c r="I13">
-        <v>258600</v>
+        <v>257800</v>
       </c>
       <c r="J13">
         <v>16</v>
@@ -4022,25 +4022,25 @@
         <v>21</v>
       </c>
       <c r="M13">
-        <v>0.65358167875819195</v>
+        <v>0.65372524042376201</v>
       </c>
       <c r="N13">
-        <v>5.9971437323341197E-2</v>
+        <v>5.9827875657770799E-2</v>
       </c>
       <c r="O13">
         <v>0.28644688391846601</v>
       </c>
       <c r="P13">
-        <v>0.19641599775816601</v>
+        <v>0.194119746530757</v>
       </c>
       <c r="Q13">
-        <v>0.80358400224183302</v>
+        <v>0.80588025346924197</v>
       </c>
       <c r="R13">
-        <v>0.22544547617087399</v>
+        <v>0.22302547624180799</v>
       </c>
       <c r="S13">
-        <v>0.77455452382912504</v>
+        <v>0.77697452375819098</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/results/SummaryTable_Class_wTotals_formatted.xlsx
+++ b/results/SummaryTable_Class_wTotals_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F5195-2BD3-4D33-A53D-0141D1D721EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7765E00E-E0D6-4878-B628-5EC27D3EE539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitsDensity" sheetId="1" r:id="rId1"/>
@@ -937,10 +937,13 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,13 +952,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,10 +1343,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="48" t="s">
@@ -1355,27 +1355,27 @@
       <c r="E2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="49"/>
-      <c r="E3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="35" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="E4" s="12">
         <f>(H4+K4)/($H$15+$K$15)</f>
-        <v>8.2418984434804804E-2</v>
+        <v>6.992328311304187E-2</v>
       </c>
       <c r="F4" s="29">
         <f>SummaryTable_Class_wTotals!D2</f>
@@ -1427,11 +1427,11 @@
       </c>
       <c r="G4" s="2">
         <f>SummaryTable_Class_wTotals!E2</f>
-        <v>49500</v>
+        <v>127200</v>
       </c>
       <c r="H4" s="37">
         <f>SummaryTable_Class_wTotals!F2</f>
-        <v>42800</v>
+        <v>120500</v>
       </c>
       <c r="I4" s="29">
         <f>SummaryTable_Class_wTotals!G2</f>
@@ -1439,11 +1439,11 @@
       </c>
       <c r="J4" s="2">
         <f>SummaryTable_Class_wTotals!H2</f>
-        <v>22800</v>
+        <v>31800</v>
       </c>
       <c r="K4" s="37">
         <f>SummaryTable_Class_wTotals!I2</f>
-        <v>21800</v>
+        <v>30800</v>
       </c>
       <c r="L4" s="29">
         <f>SummaryTable_Class_wTotals!J2</f>
@@ -1451,11 +1451,11 @@
       </c>
       <c r="M4" s="2">
         <f>SummaryTable_Class_wTotals!K2</f>
-        <v>288</v>
+        <v>634</v>
       </c>
       <c r="N4" s="37">
         <f>SummaryTable_Class_wTotals!L2</f>
-        <v>257</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="E5" s="13">
         <f t="shared" ref="E5:E15" si="1">(H5+K5)/($H$15+$K$15)</f>
-        <v>7.0298545547333502E-2</v>
+        <v>8.8963859876143817E-2</v>
       </c>
       <c r="F5" s="31">
         <f>SummaryTable_Class_wTotals!D3</f>
@@ -1481,11 +1481,11 @@
       </c>
       <c r="G5" s="4">
         <f>SummaryTable_Class_wTotals!E3</f>
-        <v>92100</v>
+        <v>204400</v>
       </c>
       <c r="H5" s="38">
         <f>SummaryTable_Class_wTotals!F3</f>
-        <v>36500</v>
+        <v>148800</v>
       </c>
       <c r="I5" s="31">
         <f>SummaryTable_Class_wTotals!G3</f>
@@ -1493,11 +1493,11 @@
       </c>
       <c r="J5" s="4">
         <f>SummaryTable_Class_wTotals!H3</f>
-        <v>21700</v>
+        <v>46800</v>
       </c>
       <c r="K5" s="38">
         <f>SummaryTable_Class_wTotals!I3</f>
-        <v>18600</v>
+        <v>43700</v>
       </c>
       <c r="L5" s="31">
         <f>SummaryTable_Class_wTotals!J3</f>
@@ -1505,11 +1505,11 @@
       </c>
       <c r="M5" s="4">
         <f>SummaryTable_Class_wTotals!K3</f>
-        <v>297</v>
+        <v>655</v>
       </c>
       <c r="N5" s="38">
         <f>SummaryTable_Class_wTotals!L3</f>
-        <v>144</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E6" s="12">
         <f t="shared" si="1"/>
-        <v>3.4447563153865782E-2</v>
+        <v>3.4892319068305762E-2</v>
       </c>
       <c r="F6" s="29">
         <f>SummaryTable_Class_wTotals!D4</f>
@@ -1535,11 +1535,11 @@
       </c>
       <c r="G6" s="2">
         <f>SummaryTable_Class_wTotals!E4</f>
-        <v>29000</v>
+        <v>70600</v>
       </c>
       <c r="H6" s="37">
         <f>SummaryTable_Class_wTotals!F4</f>
-        <v>17600</v>
+        <v>59200</v>
       </c>
       <c r="I6" s="29">
         <f>SummaryTable_Class_wTotals!G4</f>
@@ -1547,11 +1547,11 @@
       </c>
       <c r="J6" s="2">
         <f>SummaryTable_Class_wTotals!H4</f>
-        <v>11700</v>
+        <v>18600</v>
       </c>
       <c r="K6" s="37">
         <f>SummaryTable_Class_wTotals!I4</f>
-        <v>9400</v>
+        <v>16300</v>
       </c>
       <c r="L6" s="29">
         <f>SummaryTable_Class_wTotals!J4</f>
@@ -1559,11 +1559,11 @@
       </c>
       <c r="M6" s="2">
         <f>SummaryTable_Class_wTotals!K4</f>
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="N6" s="37">
         <f>SummaryTable_Class_wTotals!L4</f>
-        <v>90</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E7" s="13">
         <f t="shared" si="1"/>
-        <v>6.90227098749681E-2</v>
+        <v>7.9443571494592843E-2</v>
       </c>
       <c r="F7" s="31">
         <f>SummaryTable_Class_wTotals!D5</f>
@@ -1589,11 +1589,11 @@
       </c>
       <c r="G7" s="4">
         <f>SummaryTable_Class_wTotals!E5</f>
-        <v>57200</v>
+        <v>157400</v>
       </c>
       <c r="H7" s="38">
         <f>SummaryTable_Class_wTotals!F5</f>
-        <v>35800</v>
+        <v>136000</v>
       </c>
       <c r="I7" s="31">
         <f>SummaryTable_Class_wTotals!G5</f>
@@ -1601,11 +1601,11 @@
       </c>
       <c r="J7" s="4">
         <f>SummaryTable_Class_wTotals!H5</f>
-        <v>19900</v>
+        <v>37500</v>
       </c>
       <c r="K7" s="38">
         <f>SummaryTable_Class_wTotals!I5</f>
-        <v>18300</v>
+        <v>35900</v>
       </c>
       <c r="L7" s="31">
         <f>SummaryTable_Class_wTotals!J5</f>
@@ -1613,11 +1613,11 @@
       </c>
       <c r="M7" s="4">
         <f>SummaryTable_Class_wTotals!K5</f>
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="N7" s="38">
         <f>SummaryTable_Class_wTotals!L5</f>
-        <v>51</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="E8" s="12">
         <f t="shared" si="1"/>
-        <v>2.9982138300586884E-2</v>
+        <v>4.2702652740549032E-2</v>
       </c>
       <c r="F8" s="29">
         <f>SummaryTable_Class_wTotals!D6</f>
@@ -1643,11 +1643,11 @@
       </c>
       <c r="G8" s="2">
         <f>SummaryTable_Class_wTotals!E6</f>
-        <v>28700</v>
+        <v>86300</v>
       </c>
       <c r="H8" s="37">
         <f>SummaryTable_Class_wTotals!F6</f>
-        <v>15200</v>
+        <v>72800</v>
       </c>
       <c r="I8" s="29">
         <f>SummaryTable_Class_wTotals!G6</f>
@@ -1655,11 +1655,11 @@
       </c>
       <c r="J8" s="2">
         <f>SummaryTable_Class_wTotals!H6</f>
-        <v>11300</v>
+        <v>22600</v>
       </c>
       <c r="K8" s="37">
         <f>SummaryTable_Class_wTotals!I6</f>
-        <v>8300</v>
+        <v>19600</v>
       </c>
       <c r="L8" s="29">
         <f>SummaryTable_Class_wTotals!J6</f>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="M8" s="2">
         <f>SummaryTable_Class_wTotals!K6</f>
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="N8" s="37">
         <f>SummaryTable_Class_wTotals!L6</f>
-        <v>44</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -1681,15 +1681,15 @@
       </c>
       <c r="C9" s="31">
         <f>SummaryTable_Class_wTotals!C7</f>
-        <v>9447.7867901936297</v>
+        <v>9447.7867901936206</v>
       </c>
       <c r="D9" s="32">
         <f t="shared" si="0"/>
-        <v>0.2597374465113943</v>
+        <v>0.25973744651139408</v>
       </c>
       <c r="E9" s="13">
         <f t="shared" si="1"/>
-        <v>0.30186272008165349</v>
+        <v>0.36643867270542563</v>
       </c>
       <c r="F9" s="31">
         <f>SummaryTable_Class_wTotals!D7</f>
@@ -1697,11 +1697,11 @@
       </c>
       <c r="G9" s="4">
         <f>SummaryTable_Class_wTotals!E7</f>
-        <v>323100</v>
+        <v>809200</v>
       </c>
       <c r="H9" s="38">
         <f>SummaryTable_Class_wTotals!F7</f>
-        <v>166400</v>
+        <v>652500</v>
       </c>
       <c r="I9" s="31">
         <f>SummaryTable_Class_wTotals!G7</f>
@@ -1709,11 +1709,11 @@
       </c>
       <c r="J9" s="4">
         <f>SummaryTable_Class_wTotals!H7</f>
-        <v>97400</v>
+        <v>167600</v>
       </c>
       <c r="K9" s="38">
         <f>SummaryTable_Class_wTotals!I7</f>
-        <v>70200</v>
+        <v>140400</v>
       </c>
       <c r="L9" s="31">
         <f>SummaryTable_Class_wTotals!J7</f>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="M9" s="4">
         <f>SummaryTable_Class_wTotals!K7</f>
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="N9" s="38">
         <f>SummaryTable_Class_wTotals!L7</f>
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E10" s="12">
         <f t="shared" si="1"/>
-        <v>2.4113294207706047E-2</v>
+        <v>1.4465292540900268E-2</v>
       </c>
       <c r="F10" s="29">
         <f>SummaryTable_Class_wTotals!D8</f>
@@ -1751,11 +1751,11 @@
       </c>
       <c r="G10" s="2">
         <f>SummaryTable_Class_wTotals!E8</f>
-        <v>13800</v>
+        <v>25400</v>
       </c>
       <c r="H10" s="37">
         <f>SummaryTable_Class_wTotals!F8</f>
-        <v>12500</v>
+        <v>24100</v>
       </c>
       <c r="I10" s="29">
         <f>SummaryTable_Class_wTotals!G8</f>
@@ -1763,11 +1763,11 @@
       </c>
       <c r="J10" s="2">
         <f>SummaryTable_Class_wTotals!H8</f>
-        <v>6600</v>
+        <v>7400</v>
       </c>
       <c r="K10" s="37">
         <f>SummaryTable_Class_wTotals!I8</f>
-        <v>6400</v>
+        <v>7200</v>
       </c>
       <c r="L10" s="29">
         <f>SummaryTable_Class_wTotals!J8</f>
@@ -1775,11 +1775,11 @@
       </c>
       <c r="M10" s="2">
         <f>SummaryTable_Class_wTotals!K8</f>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N10" s="37">
         <f>SummaryTable_Class_wTotals!L8</f>
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E11" s="13">
         <f t="shared" si="1"/>
-        <v>4.8992089818831332E-2</v>
+        <v>3.632498382475275E-2</v>
       </c>
       <c r="F11" s="31">
         <f>SummaryTable_Class_wTotals!D9</f>
@@ -1805,11 +1805,11 @@
       </c>
       <c r="G11" s="4">
         <f>SummaryTable_Class_wTotals!E9</f>
-        <v>37400</v>
+        <v>71800</v>
       </c>
       <c r="H11" s="38">
         <f>SummaryTable_Class_wTotals!F9</f>
-        <v>24900</v>
+        <v>59300</v>
       </c>
       <c r="I11" s="31">
         <f>SummaryTable_Class_wTotals!G9</f>
@@ -1817,11 +1817,11 @@
       </c>
       <c r="J11" s="4">
         <f>SummaryTable_Class_wTotals!H9</f>
-        <v>15600</v>
+        <v>21400</v>
       </c>
       <c r="K11" s="38">
         <f>SummaryTable_Class_wTotals!I9</f>
-        <v>13500</v>
+        <v>19300</v>
       </c>
       <c r="L11" s="31">
         <f>SummaryTable_Class_wTotals!J9</f>
@@ -1829,11 +1829,11 @@
       </c>
       <c r="M11" s="4">
         <f>SummaryTable_Class_wTotals!K9</f>
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="N11" s="38">
         <f>SummaryTable_Class_wTotals!L9</f>
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="E12" s="12">
         <f t="shared" si="1"/>
-        <v>0.30109721867823425</v>
+        <v>0.23463351511230243</v>
       </c>
       <c r="F12" s="29">
         <f>SummaryTable_Class_wTotals!D10</f>
@@ -1859,11 +1859,11 @@
       </c>
       <c r="G12" s="2">
         <f>SummaryTable_Class_wTotals!E10</f>
-        <v>318300</v>
+        <v>544800</v>
       </c>
       <c r="H12" s="37">
         <f>SummaryTable_Class_wTotals!F10</f>
-        <v>155100</v>
+        <v>381600</v>
       </c>
       <c r="I12" s="29">
         <f>SummaryTable_Class_wTotals!G10</f>
@@ -1871,11 +1871,11 @@
       </c>
       <c r="J12" s="2">
         <f>SummaryTable_Class_wTotals!H10</f>
-        <v>114200</v>
+        <v>159400</v>
       </c>
       <c r="K12" s="37">
         <f>SummaryTable_Class_wTotals!I10</f>
-        <v>80900</v>
+        <v>126100</v>
       </c>
       <c r="L12" s="29">
         <f>SummaryTable_Class_wTotals!J10</f>
@@ -1883,11 +1883,11 @@
       </c>
       <c r="M12" s="2">
         <f>SummaryTable_Class_wTotals!K10</f>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N12" s="37">
         <f>SummaryTable_Class_wTotals!L10</f>
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="E13" s="13">
         <f t="shared" si="1"/>
-        <v>1.2248022454707833E-2</v>
+        <v>1.0305943247989648E-2</v>
       </c>
       <c r="F13" s="31">
         <f>SummaryTable_Class_wTotals!D11</f>
@@ -1913,11 +1913,11 @@
       </c>
       <c r="G13" s="4">
         <f>SummaryTable_Class_wTotals!E11</f>
-        <v>10500</v>
+        <v>21700</v>
       </c>
       <c r="H13" s="38">
         <f>SummaryTable_Class_wTotals!F11</f>
-        <v>6300</v>
+        <v>17500</v>
       </c>
       <c r="I13" s="31">
         <f>SummaryTable_Class_wTotals!G11</f>
@@ -1925,11 +1925,11 @@
       </c>
       <c r="J13" s="4">
         <f>SummaryTable_Class_wTotals!H11</f>
-        <v>5300</v>
+        <v>6800</v>
       </c>
       <c r="K13" s="38">
         <f>SummaryTable_Class_wTotals!I11</f>
-        <v>3300</v>
+        <v>4800</v>
       </c>
       <c r="L13" s="31">
         <f>SummaryTable_Class_wTotals!J11</f>
@@ -1937,11 +1937,11 @@
       </c>
       <c r="M13" s="4">
         <f>SummaryTable_Class_wTotals!K11</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N13" s="38">
         <f>SummaryTable_Class_wTotals!L11</f>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="E14" s="12">
         <f t="shared" si="1"/>
-        <v>2.5516713447307986E-2</v>
+        <v>2.1905906275995934E-2</v>
       </c>
       <c r="F14" s="29">
         <f>SummaryTable_Class_wTotals!D12</f>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="G14" s="2">
         <f>SummaryTable_Class_wTotals!E12</f>
-        <v>50300</v>
+        <v>74200</v>
       </c>
       <c r="H14" s="37">
         <f>SummaryTable_Class_wTotals!F12</f>
-        <v>12800</v>
+        <v>36700</v>
       </c>
       <c r="I14" s="29">
         <f>SummaryTable_Class_wTotals!G12</f>
@@ -1979,11 +1979,11 @@
       </c>
       <c r="J14" s="2">
         <f>SummaryTable_Class_wTotals!H12</f>
-        <v>15400</v>
+        <v>18900</v>
       </c>
       <c r="K14" s="37">
         <f>SummaryTable_Class_wTotals!I12</f>
-        <v>7200</v>
+        <v>10700</v>
       </c>
       <c r="L14" s="29">
         <f>SummaryTable_Class_wTotals!J12</f>
@@ -1991,11 +1991,11 @@
       </c>
       <c r="M14" s="2">
         <f>SummaryTable_Class_wTotals!K12</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N14" s="37">
         <f>SummaryTable_Class_wTotals!L12</f>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -2020,11 +2020,11 @@
       </c>
       <c r="G15" s="39">
         <f>SummaryTable_Class_wTotals!E13</f>
-        <v>1009900</v>
+        <v>2192900</v>
       </c>
       <c r="H15" s="40">
         <f>SummaryTable_Class_wTotals!F13</f>
-        <v>526000</v>
+        <v>1709000</v>
       </c>
       <c r="I15" s="33">
         <f>SummaryTable_Class_wTotals!G13</f>
@@ -2032,11 +2032,11 @@
       </c>
       <c r="J15" s="39">
         <f>SummaryTable_Class_wTotals!H13</f>
-        <v>341800</v>
+        <v>538800</v>
       </c>
       <c r="K15" s="40">
         <f>SummaryTable_Class_wTotals!I13</f>
-        <v>257800</v>
+        <v>454800</v>
       </c>
       <c r="L15" s="33">
         <f>SummaryTable_Class_wTotals!J13</f>
@@ -2044,18 +2044,18 @@
       </c>
       <c r="M15" s="39">
         <f>SummaryTable_Class_wTotals!K13</f>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N15" s="40">
         <f>SummaryTable_Class_wTotals!L13</f>
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="46" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="48" t="s">
@@ -2064,27 +2064,27 @@
       <c r="E18" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="45" t="s">
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="45" t="s">
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="47"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="49"/>
-      <c r="E19" s="44"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="35" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="E20" s="12">
         <f>(H20+K20)/($H$15+$K$15)</f>
-        <v>0.18716509313600407</v>
+        <v>0.19377946205749144</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ref="F20:K20" si="2">F4+F5+F6</f>
@@ -2135,11 +2135,11 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>170600</v>
+        <v>402200</v>
       </c>
       <c r="H20" s="37">
         <f t="shared" si="2"/>
-        <v>96900</v>
+        <v>328500</v>
       </c>
       <c r="I20" s="29">
         <f t="shared" si="2"/>
@@ -2147,11 +2147,11 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>56200</v>
+        <v>97200</v>
       </c>
       <c r="K20" s="37">
         <f t="shared" si="2"/>
-        <v>49800</v>
+        <v>90800</v>
       </c>
       <c r="L20" s="29">
         <f>(F20+I20)/$C20</f>
@@ -2159,11 +2159,11 @@
       </c>
       <c r="M20" s="2">
         <f t="shared" ref="M20:N20" si="3">(G20+J20)/$C20</f>
-        <v>242.96454791130108</v>
+        <v>534.9933651979884</v>
       </c>
       <c r="N20" s="37">
         <f t="shared" si="3"/>
-        <v>157.15564011723046</v>
+        <v>449.18445740391775</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -2172,15 +2172,15 @@
       </c>
       <c r="C21" s="31">
         <f>C7+C8+C9</f>
-        <v>11035.162902563676</v>
+        <v>11035.162902563668</v>
       </c>
       <c r="D21" s="32">
         <f t="shared" ref="D21:D24" si="4">C21/$C$15</f>
-        <v>0.30337740444398964</v>
+        <v>0.30337740444398942</v>
       </c>
       <c r="E21" s="13">
         <f>(H21+K21)/($H$15+$K$15)</f>
-        <v>0.40086756825720848</v>
+        <v>0.4885848969405675</v>
       </c>
       <c r="F21" s="31">
         <f t="shared" ref="F21:K21" si="5">F7+F8+F9</f>
@@ -2188,11 +2188,11 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>409000</v>
+        <v>1052900</v>
       </c>
       <c r="H21" s="38">
         <f t="shared" si="5"/>
-        <v>217400</v>
+        <v>861300</v>
       </c>
       <c r="I21" s="31">
         <f t="shared" si="5"/>
@@ -2200,23 +2200,23 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
-        <v>128600</v>
+        <v>227700</v>
       </c>
       <c r="K21" s="38">
         <f t="shared" si="5"/>
-        <v>96800</v>
+        <v>195900</v>
       </c>
       <c r="L21" s="31">
         <f t="shared" ref="L21:L23" si="6">(F21+I21)/$C21</f>
-        <v>20.244377176171998</v>
+        <v>20.244377176172009</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" ref="M21:M23" si="7">(G21+J21)/$C21</f>
-        <v>48.716997179543711</v>
+        <v>116.04722207612299</v>
       </c>
       <c r="N21" s="38">
         <f t="shared" ref="N21:N23" si="8">(H21+K21)/$C21</f>
-        <v>28.472620003371716</v>
+        <v>95.802844899950983</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="E22" s="12">
         <f t="shared" ref="E22:E24" si="9">(H22+K22)/($H$15+$K$15)</f>
-        <v>0.37420260270477163</v>
+        <v>0.28542379147795544</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ref="F22:K22" si="10">F10+F11+F12</f>
@@ -2241,11 +2241,11 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" si="10"/>
-        <v>369500</v>
+        <v>642000</v>
       </c>
       <c r="H22" s="37">
         <f t="shared" si="10"/>
-        <v>192500</v>
+        <v>465000</v>
       </c>
       <c r="I22" s="29">
         <f t="shared" si="10"/>
@@ -2253,11 +2253,11 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="10"/>
-        <v>136400</v>
+        <v>188200</v>
       </c>
       <c r="K22" s="37">
         <f t="shared" si="10"/>
-        <v>100800</v>
+        <v>152600</v>
       </c>
       <c r="L22" s="29">
         <f t="shared" si="6"/>
@@ -2265,11 +2265,11 @@
       </c>
       <c r="M22" s="2">
         <f t="shared" si="7"/>
-        <v>24.790430175806438</v>
+        <v>40.681982866089164</v>
       </c>
       <c r="N22" s="37">
         <f t="shared" si="8"/>
-        <v>14.372471181190015</v>
+        <v>30.264023871472737</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E23" s="13">
         <f t="shared" si="9"/>
-        <v>3.7764735902015824E-2</v>
+        <v>3.2211849523985578E-2</v>
       </c>
       <c r="F23" s="31">
         <f t="shared" ref="F23:K23" si="11">F13+F14</f>
@@ -2294,11 +2294,11 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" si="11"/>
-        <v>60800</v>
+        <v>95900</v>
       </c>
       <c r="H23" s="38">
         <f t="shared" si="11"/>
-        <v>19100</v>
+        <v>54200</v>
       </c>
       <c r="I23" s="31">
         <f t="shared" si="11"/>
@@ -2306,11 +2306,11 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" si="11"/>
-        <v>20700</v>
+        <v>25700</v>
       </c>
       <c r="K23" s="38">
         <f t="shared" si="11"/>
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="L23" s="31">
         <f t="shared" si="6"/>
@@ -2318,11 +2318,11 @@
       </c>
       <c r="M23" s="4">
         <f t="shared" si="7"/>
-        <v>20.381764403759057</v>
+        <v>30.41009265640615</v>
       </c>
       <c r="N23" s="38">
         <f t="shared" si="8"/>
-        <v>7.4024567650462334</v>
+        <v>17.430785017693328</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -2347,11 +2347,11 @@
       </c>
       <c r="G24" s="39">
         <f t="shared" si="12"/>
-        <v>1009900</v>
+        <v>2192900</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="12"/>
-        <v>526000</v>
+        <v>1709000</v>
       </c>
       <c r="I24" s="33">
         <f t="shared" si="12"/>
@@ -2359,11 +2359,11 @@
       </c>
       <c r="J24" s="39">
         <f t="shared" si="12"/>
-        <v>341800</v>
+        <v>538800</v>
       </c>
       <c r="K24" s="40">
         <f t="shared" si="12"/>
-        <v>257800</v>
+        <v>454800</v>
       </c>
       <c r="L24" s="33">
         <f t="shared" si="12"/>
@@ -2371,18 +2371,18 @@
       </c>
       <c r="M24" s="39">
         <f t="shared" si="12"/>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N24" s="40">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="46" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -2391,27 +2391,27 @@
       <c r="E27" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="45" t="s">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="45" t="s">
+      <c r="J27" s="42"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="44"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="49"/>
-      <c r="E28" s="44"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="35" t="s">
         <v>7</v>
       </c>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E29" s="12">
         <f>(H29+K29)/($H$15+$K$15)</f>
-        <v>0.1878030109721868</v>
+        <v>0.17413809039652464</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ref="F29:K29" si="13">F4+F7+F10+F13</f>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="13"/>
-        <v>131000</v>
+        <v>331700</v>
       </c>
       <c r="H29" s="37">
         <f t="shared" si="13"/>
-        <v>97400</v>
+        <v>298100</v>
       </c>
       <c r="I29" s="29">
         <f t="shared" si="13"/>
@@ -2474,11 +2474,11 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="13"/>
-        <v>54600</v>
+        <v>83500</v>
       </c>
       <c r="K29" s="37">
         <f t="shared" si="13"/>
-        <v>49800</v>
+        <v>78700</v>
       </c>
       <c r="L29" s="29">
         <f>(F29+I29)/$C29</f>
@@ -2486,11 +2486,11 @@
       </c>
       <c r="M29" s="2">
         <f t="shared" ref="M29:M31" si="14">(G29+J29)/$C29</f>
-        <v>68.587683088850667</v>
+        <v>153.43537725479956</v>
       </c>
       <c r="N29" s="37">
         <f t="shared" ref="N29:N31" si="15">(H29+K29)/$C29</f>
-        <v>54.397127967019493</v>
+        <v>139.24482213296838</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="E30" s="13">
         <f>(H30+K30)/($H$15+$K$15)</f>
-        <v>0.1747894871140597</v>
+        <v>0.18989740271744154</v>
       </c>
       <c r="F30" s="31">
         <f t="shared" ref="F30:K30" si="17">F5+F8+F11+F14</f>
@@ -2515,11 +2515,11 @@
       </c>
       <c r="G30" s="4">
         <f t="shared" si="17"/>
-        <v>208500</v>
+        <v>436700</v>
       </c>
       <c r="H30" s="38">
         <f t="shared" si="17"/>
-        <v>89400</v>
+        <v>317600</v>
       </c>
       <c r="I30" s="31">
         <f t="shared" si="17"/>
@@ -2527,11 +2527,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" si="17"/>
-        <v>64000</v>
+        <v>109700</v>
       </c>
       <c r="K30" s="38">
         <f t="shared" si="17"/>
-        <v>47600</v>
+        <v>93300</v>
       </c>
       <c r="L30" s="31">
         <f t="shared" ref="L30:L31" si="18">(F30+I30)/$C30</f>
@@ -2539,11 +2539,11 @@
       </c>
       <c r="M30" s="4">
         <f t="shared" si="14"/>
-        <v>54.806178756140824</v>
+        <v>109.89393054075357</v>
       </c>
       <c r="N30" s="38">
         <f t="shared" si="15"/>
-        <v>27.553932071894653</v>
+        <v>82.641683856507399</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -2552,15 +2552,15 @@
       </c>
       <c r="C31" s="29">
         <f>C6+C9+C12</f>
-        <v>28696.280762216727</v>
+        <v>28696.280762216717</v>
       </c>
       <c r="D31" s="30">
         <f t="shared" si="16"/>
-        <v>0.78891478555470906</v>
+        <v>0.78891478555470884</v>
       </c>
       <c r="E31" s="12">
         <f t="shared" ref="E31:E32" si="19">(H31+K31)/($H$15+$K$15)</f>
-        <v>0.6374075019137535</v>
+        <v>0.63596450688603379</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ref="F31:K31" si="20">F6+F9+F12</f>
@@ -2568,11 +2568,11 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="20"/>
-        <v>670400</v>
+        <v>1424600</v>
       </c>
       <c r="H31" s="37">
         <f t="shared" si="20"/>
-        <v>339100</v>
+        <v>1093300</v>
       </c>
       <c r="I31" s="29">
         <f t="shared" si="20"/>
@@ -2580,23 +2580,23 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="20"/>
-        <v>223300</v>
+        <v>345600</v>
       </c>
       <c r="K31" s="37">
         <f t="shared" si="20"/>
-        <v>160500</v>
+        <v>282800</v>
       </c>
       <c r="L31" s="29">
         <f t="shared" si="18"/>
-        <v>13.733487041947821</v>
+        <v>13.733487041947827</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="14"/>
-        <v>31.143408701823823</v>
+        <v>61.687436593900138</v>
       </c>
       <c r="N31" s="37">
         <f t="shared" si="15"/>
-        <v>17.409921659876002</v>
+        <v>47.953949551952313</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -2621,11 +2621,11 @@
       </c>
       <c r="G32" s="39">
         <f t="shared" si="21"/>
-        <v>1009900</v>
+        <v>2192900</v>
       </c>
       <c r="H32" s="40">
         <f t="shared" si="21"/>
-        <v>526000</v>
+        <v>1709000</v>
       </c>
       <c r="I32" s="33">
         <f t="shared" si="21"/>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="J32" s="39">
         <f t="shared" si="21"/>
-        <v>341800</v>
+        <v>538800</v>
       </c>
       <c r="K32" s="40">
         <f t="shared" si="21"/>
-        <v>257800</v>
+        <v>454800</v>
       </c>
       <c r="L32" s="33">
         <f t="shared" si="21"/>
@@ -2645,15 +2645,22 @@
       </c>
       <c r="M32" s="39">
         <f t="shared" si="21"/>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N32" s="40">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="B27:B28"/>
@@ -2668,13 +2675,6 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2685,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF95D237-0CC0-48D9-B8E7-CC6B51F60950}">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,10 +2699,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="51" t="s">
@@ -2723,9 +2723,9 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="25" t="s">
         <v>33</v>
       </c>
@@ -2763,11 +2763,11 @@
       </c>
       <c r="E4" s="6">
         <f>SummaryTable_Class_wTotals!M2</f>
-        <v>0.56234050665089597</v>
+        <v>0.37672932750501598</v>
       </c>
       <c r="F4" s="3">
         <f>SummaryTable_Class_wTotals!N2</f>
-        <v>0.23216431592026299</v>
+        <v>0.41777549506614298</v>
       </c>
       <c r="G4" s="7">
         <f>SummaryTable_Class_wTotals!O2</f>
@@ -2775,19 +2775,19 @@
       </c>
       <c r="H4" s="6">
         <f>SummaryTable_Class_wTotals!P2</f>
-        <v>0.52096799594106302</v>
+        <v>0.65968662150612201</v>
       </c>
       <c r="I4" s="7">
         <f>SummaryTable_Class_wTotals!Q2</f>
-        <v>0.47903200405893598</v>
+        <v>0.34031337849387699</v>
       </c>
       <c r="J4" s="6">
         <f>SummaryTable_Class_wTotals!R2</f>
-        <v>0.52980789576932397</v>
+        <v>0.666769119816077</v>
       </c>
       <c r="K4" s="7">
         <f>SummaryTable_Class_wTotals!S2</f>
-        <v>0.47019210423067498</v>
+        <v>0.333230880183922</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -2805,11 +2805,11 @@
       </c>
       <c r="E5" s="8">
         <f>SummaryTable_Class_wTotals!M3</f>
-        <v>0.75610786350745396</v>
+        <v>0.41383274378317902</v>
       </c>
       <c r="F5" s="5">
         <f>SummaryTable_Class_wTotals!N3</f>
-        <v>6.5009015381038801E-2</v>
+        <v>0.40728413510531403</v>
       </c>
       <c r="G5" s="9">
         <f>SummaryTable_Class_wTotals!O3</f>
@@ -2817,19 +2817,19 @@
       </c>
       <c r="H5" s="8">
         <f>SummaryTable_Class_wTotals!P3</f>
-        <v>0.252528201494857</v>
+        <v>0.63322426050256897</v>
       </c>
       <c r="I5" s="9">
         <f>SummaryTable_Class_wTotals!Q3</f>
-        <v>0.747471798505142</v>
+        <v>0.36677573949742998</v>
       </c>
       <c r="J5" s="8">
         <f>SummaryTable_Class_wTotals!R3</f>
-        <v>0.266320237231221</v>
+        <v>0.687982071027047</v>
       </c>
       <c r="K5" s="9">
         <f>SummaryTable_Class_wTotals!S3</f>
-        <v>0.733679762768779</v>
+        <v>0.312017928972952</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -2847,11 +2847,11 @@
       </c>
       <c r="E6" s="6">
         <f>SummaryTable_Class_wTotals!M4</f>
-        <v>0.64887076252914699</v>
+        <v>0.36136235399872202</v>
       </c>
       <c r="F6" s="3">
         <f>SummaryTable_Class_wTotals!N4</f>
-        <v>0.23123846104152801</v>
+        <v>0.51874686957195404</v>
       </c>
       <c r="G6" s="7">
         <f>SummaryTable_Class_wTotals!O4</f>
@@ -2859,19 +2859,19 @@
       </c>
       <c r="H6" s="6">
         <f>SummaryTable_Class_wTotals!P4</f>
-        <v>0.63343537124846905</v>
+        <v>0.78191761894126599</v>
       </c>
       <c r="I6" s="7">
         <f>SummaryTable_Class_wTotals!Q4</f>
-        <v>0.36656462875153001</v>
+        <v>0.21808238105873301</v>
       </c>
       <c r="J6" s="6">
         <f>SummaryTable_Class_wTotals!R4</f>
-        <v>0.65618141578857603</v>
+        <v>0.80140850023196097</v>
       </c>
       <c r="K6" s="7">
         <f>SummaryTable_Class_wTotals!S4</f>
-        <v>0.34381858421142297</v>
+        <v>0.198591499768038</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -2889,11 +2889,11 @@
       </c>
       <c r="E7" s="8">
         <f>SummaryTable_Class_wTotals!M5</f>
-        <v>0.70341579820519895</v>
+        <v>0.405601467587894</v>
       </c>
       <c r="F7" s="5">
         <f>SummaryTable_Class_wTotals!N5</f>
-        <v>5.6391981262524302E-2</v>
+        <v>0.35420631187982898</v>
       </c>
       <c r="G7" s="9">
         <f>SummaryTable_Class_wTotals!O5</f>
@@ -2901,19 +2901,19 @@
       </c>
       <c r="H7" s="8">
         <f>SummaryTable_Class_wTotals!P5</f>
-        <v>0.17267996287690901</v>
+        <v>0.56429799044921602</v>
       </c>
       <c r="I7" s="9">
         <f>SummaryTable_Class_wTotals!Q5</f>
-        <v>0.82732003712308999</v>
+        <v>0.43570200955078298</v>
       </c>
       <c r="J7" s="8">
         <f>SummaryTable_Class_wTotals!R5</f>
-        <v>0.18691256346070301</v>
+        <v>0.58757087986002299</v>
       </c>
       <c r="K7" s="9">
         <f>SummaryTable_Class_wTotals!S5</f>
-        <v>0.81308743653929605</v>
+        <v>0.41242912013997601</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -2931,11 +2931,11 @@
       </c>
       <c r="E8" s="6">
         <f>SummaryTable_Class_wTotals!M6</f>
-        <v>0.73517277302125295</v>
+        <v>0.34496746612974499</v>
       </c>
       <c r="F8" s="3">
         <f>SummaryTable_Class_wTotals!N6</f>
-        <v>9.7396278829744803E-2</v>
+        <v>0.48760158572125201</v>
       </c>
       <c r="G8" s="7">
         <f>SummaryTable_Class_wTotals!O6</f>
@@ -2943,19 +2943,19 @@
       </c>
       <c r="H8" s="6">
         <f>SummaryTable_Class_wTotals!P6</f>
-        <v>0.31055034603794002</v>
+        <v>0.71079658648506605</v>
       </c>
       <c r="I8" s="7">
         <f>SummaryTable_Class_wTotals!Q6</f>
-        <v>0.68944965396205904</v>
+        <v>0.28920341351493301</v>
       </c>
       <c r="J8" s="6">
         <f>SummaryTable_Class_wTotals!R6</f>
-        <v>0.36540143054320801</v>
+        <v>0.73164206361295803</v>
       </c>
       <c r="K8" s="7">
         <f>SummaryTable_Class_wTotals!S6</f>
-        <v>0.63459856945679105</v>
+        <v>0.26835793638704097</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -2965,19 +2965,19 @@
       </c>
       <c r="C9" s="16">
         <f>SummaryTable_Class_wTotals!C7</f>
-        <v>9447.7867901936297</v>
+        <v>9447.7867901936206</v>
       </c>
       <c r="D9" s="19">
         <f t="shared" si="0"/>
-        <v>0.2597374465113943</v>
+        <v>0.25973744651139408</v>
       </c>
       <c r="E9" s="8">
         <f>SummaryTable_Class_wTotals!M7</f>
-        <v>0.73807658061037795</v>
+        <v>0.435672911813342</v>
       </c>
       <c r="F9" s="5">
         <f>SummaryTable_Class_wTotals!N7</f>
-        <v>4.8587317171154103E-2</v>
+        <v>0.35099098596818901</v>
       </c>
       <c r="G9" s="9">
         <f>SummaryTable_Class_wTotals!O7</f>
@@ -2985,19 +2985,19 @@
       </c>
       <c r="H9" s="8">
         <f>SummaryTable_Class_wTotals!P7</f>
-        <v>0.16226044266088399</v>
+        <v>0.57279001922426698</v>
       </c>
       <c r="I9" s="9">
         <f>SummaryTable_Class_wTotals!Q7</f>
-        <v>0.83773955733911498</v>
+        <v>0.42720998077573202</v>
       </c>
       <c r="J9" s="8">
         <f>SummaryTable_Class_wTotals!R7</f>
-        <v>0.17301672768186099</v>
+        <v>0.586336952012944</v>
       </c>
       <c r="K9" s="9">
         <f>SummaryTable_Class_wTotals!S7</f>
-        <v>0.82698327231813795</v>
+        <v>0.413663047987055</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -3015,11 +3015,11 @@
       </c>
       <c r="E10" s="6">
         <f>SummaryTable_Class_wTotals!M8</f>
-        <v>0.341768083148071</v>
+        <v>0.25079495593823797</v>
       </c>
       <c r="F10" s="3">
         <f>SummaryTable_Class_wTotals!N8</f>
-        <v>4.0296866940982001E-2</v>
+        <v>0.131269994150815</v>
       </c>
       <c r="G10" s="7">
         <f>SummaryTable_Class_wTotals!O8</f>
@@ -3027,19 +3027,19 @@
       </c>
       <c r="H10" s="6">
         <f>SummaryTable_Class_wTotals!P8</f>
-        <v>3.7145644184080402E-2</v>
+        <v>0.14561804923197</v>
       </c>
       <c r="I10" s="7">
         <f>SummaryTable_Class_wTotals!Q8</f>
-        <v>0.96285435581591905</v>
+        <v>0.85438195076802903</v>
       </c>
       <c r="J10" s="6">
         <f>SummaryTable_Class_wTotals!R8</f>
-        <v>6.0419253513439498E-2</v>
+        <v>0.16598597129529599</v>
       </c>
       <c r="K10" s="7">
         <f>SummaryTable_Class_wTotals!S8</f>
-        <v>0.93958074648655998</v>
+        <v>0.83401402870470298</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -3057,11 +3057,11 @@
       </c>
       <c r="E11" s="8">
         <f>SummaryTable_Class_wTotals!M9</f>
-        <v>0.50580354474710199</v>
+        <v>0.26913929035305201</v>
       </c>
       <c r="F11" s="5">
         <f>SummaryTable_Class_wTotals!N9</f>
-        <v>0.149535348011227</v>
+        <v>0.38619960240527701</v>
       </c>
       <c r="G11" s="9">
         <f>SummaryTable_Class_wTotals!O9</f>
@@ -3069,19 +3069,19 @@
       </c>
       <c r="H11" s="8">
         <f>SummaryTable_Class_wTotals!P9</f>
-        <v>0.23880123409312101</v>
+        <v>0.45102942369514398</v>
       </c>
       <c r="I11" s="9">
         <f>SummaryTable_Class_wTotals!Q9</f>
-        <v>0.76119876590687796</v>
+        <v>0.54897057630485502</v>
       </c>
       <c r="J11" s="8">
         <f>SummaryTable_Class_wTotals!R9</f>
-        <v>0.295774626111724</v>
+        <v>0.50931985793271595</v>
       </c>
       <c r="K11" s="9">
         <f>SummaryTable_Class_wTotals!S9</f>
-        <v>0.704225373888275</v>
+        <v>0.490680142067283</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -3099,11 +3099,11 @@
       </c>
       <c r="E12" s="6">
         <f>SummaryTable_Class_wTotals!M10</f>
-        <v>0.61181353306202302</v>
+        <v>0.342971911618424</v>
       </c>
       <c r="F12" s="3">
         <f>SummaryTable_Class_wTotals!N10</f>
-        <v>4.9696302055415899E-2</v>
+        <v>0.318537923499015</v>
       </c>
       <c r="G12" s="7">
         <f>SummaryTable_Class_wTotals!O10</f>
@@ -3111,19 +3111,19 @@
       </c>
       <c r="H12" s="6">
         <f>SummaryTable_Class_wTotals!P10</f>
-        <v>7.6907313903927299E-2</v>
+        <v>0.356826544254292</v>
       </c>
       <c r="I12" s="7">
         <f>SummaryTable_Class_wTotals!Q10</f>
-        <v>0.92309268609607198</v>
+        <v>0.64317345574570695</v>
       </c>
       <c r="J12" s="6">
         <f>SummaryTable_Class_wTotals!R10</f>
-        <v>0.114978224053234</v>
+        <v>0.432482055132138</v>
       </c>
       <c r="K12" s="7">
         <f>SummaryTable_Class_wTotals!S10</f>
-        <v>0.88502177594676501</v>
+        <v>0.567517944867861</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -3141,11 +3141,11 @@
       </c>
       <c r="E13" s="8">
         <f>SummaryTable_Class_wTotals!M11</f>
-        <v>0.63009872257295896</v>
+        <v>0.40666339857689499</v>
       </c>
       <c r="F13" s="5">
         <f>SummaryTable_Class_wTotals!N11</f>
-        <v>5.0040256379603E-2</v>
+        <v>0.27347558037566599</v>
       </c>
       <c r="G13" s="9">
         <f>SummaryTable_Class_wTotals!O11</f>
@@ -3153,19 +3153,19 @@
       </c>
       <c r="H13" s="8">
         <f>SummaryTable_Class_wTotals!P11</f>
-        <v>6.8098764815207893E-2</v>
+        <v>0.42078409861537303</v>
       </c>
       <c r="I13" s="9">
         <f>SummaryTable_Class_wTotals!Q11</f>
-        <v>0.93190123518479195</v>
+        <v>0.57921590138462598</v>
       </c>
       <c r="J13" s="8">
         <f>SummaryTable_Class_wTotals!R11</f>
-        <v>0.12354183535109101</v>
+        <v>0.39265157270361101</v>
       </c>
       <c r="K13" s="9">
         <f>SummaryTable_Class_wTotals!S11</f>
-        <v>0.87645816464890802</v>
+        <v>0.60734842729638805</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3183,11 +3183,11 @@
       </c>
       <c r="E14" s="6">
         <f>SummaryTable_Class_wTotals!M12</f>
-        <v>0.71715067020525403</v>
+        <v>0.46485514044059001</v>
       </c>
       <c r="F14" s="3">
         <f>SummaryTable_Class_wTotals!N12</f>
-        <v>9.54147223883276E-2</v>
+        <v>0.34771025215299201</v>
       </c>
       <c r="G14" s="7">
         <f>SummaryTable_Class_wTotals!O12</f>
@@ -3195,19 +3195,19 @@
       </c>
       <c r="H14" s="6">
         <f>SummaryTable_Class_wTotals!P12</f>
-        <v>0.21313770243546201</v>
+        <v>0.52952295754939904</v>
       </c>
       <c r="I14" s="7">
         <f>SummaryTable_Class_wTotals!Q12</f>
-        <v>0.78686229756453696</v>
+        <v>0.47047704245060001</v>
       </c>
       <c r="J14" s="6">
         <f>SummaryTable_Class_wTotals!R12</f>
-        <v>0.30025130994892701</v>
+        <v>0.53124718534638204</v>
       </c>
       <c r="K14" s="7">
         <f>SummaryTable_Class_wTotals!S12</f>
-        <v>0.69974869005107199</v>
+        <v>0.46875281465361701</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -3224,11 +3224,11 @@
       </c>
       <c r="E15" s="10">
         <f>SummaryTable_Class_wTotals!M13</f>
-        <v>0.65372524042376201</v>
+        <v>0.37863044106576799</v>
       </c>
       <c r="F15" s="21">
         <f>SummaryTable_Class_wTotals!N13</f>
-        <v>5.9827875657770799E-2</v>
+        <v>0.334922675015764</v>
       </c>
       <c r="G15" s="11">
         <f>SummaryTable_Class_wTotals!O13</f>
@@ -3236,19 +3236,19 @@
       </c>
       <c r="H15" s="10">
         <f>SummaryTable_Class_wTotals!P13</f>
-        <v>0.194119746530757</v>
+        <v>0.53567410566707996</v>
       </c>
       <c r="I15" s="11">
         <f>SummaryTable_Class_wTotals!Q13</f>
-        <v>0.80588025346924197</v>
+        <v>0.46432589433291899</v>
       </c>
       <c r="J15" s="10">
         <f>SummaryTable_Class_wTotals!R13</f>
-        <v>0.22302547624180799</v>
+        <v>0.55965720048104795</v>
       </c>
       <c r="K15" s="11">
         <f>SummaryTable_Class_wTotals!S13</f>
-        <v>0.77697452375819098</v>
+        <v>0.440342799518952</v>
       </c>
     </row>
   </sheetData>
@@ -3352,49 +3352,49 @@
         <v>6700</v>
       </c>
       <c r="E2">
-        <v>49500</v>
+        <v>127200</v>
       </c>
       <c r="F2">
-        <v>42800</v>
+        <v>120500</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2">
-        <v>22800</v>
+        <v>31800</v>
       </c>
       <c r="I2">
-        <v>21800</v>
+        <v>30800</v>
       </c>
       <c r="J2">
         <v>31</v>
       </c>
       <c r="K2">
-        <v>288</v>
+        <v>634</v>
       </c>
       <c r="L2">
-        <v>257</v>
+        <v>603</v>
       </c>
       <c r="M2">
-        <v>0.56234050665089597</v>
+        <v>0.37672932750501598</v>
       </c>
       <c r="N2">
-        <v>0.23216431592026299</v>
+        <v>0.41777549506614298</v>
       </c>
       <c r="O2">
         <v>0.20549517742883999</v>
       </c>
       <c r="P2">
-        <v>0.52096799594106302</v>
+        <v>0.65968662150612201</v>
       </c>
       <c r="Q2">
-        <v>0.47903200405893598</v>
+        <v>0.34031337849387699</v>
       </c>
       <c r="R2">
-        <v>0.52980789576932397</v>
+        <v>0.666769119816077</v>
       </c>
       <c r="S2">
-        <v>0.47019210423067498</v>
+        <v>0.333230880183922</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -3411,49 +3411,49 @@
         <v>55600</v>
       </c>
       <c r="E3">
-        <v>92100</v>
+        <v>204400</v>
       </c>
       <c r="F3">
-        <v>36500</v>
+        <v>148800</v>
       </c>
       <c r="G3">
         <v>3100</v>
       </c>
       <c r="H3">
-        <v>21700</v>
+        <v>46800</v>
       </c>
       <c r="I3">
-        <v>18600</v>
+        <v>43700</v>
       </c>
       <c r="J3">
         <v>153</v>
       </c>
       <c r="K3">
-        <v>297</v>
+        <v>655</v>
       </c>
       <c r="L3">
-        <v>144</v>
+        <v>502</v>
       </c>
       <c r="M3">
-        <v>0.75610786350745396</v>
+        <v>0.41383274378317902</v>
       </c>
       <c r="N3">
-        <v>6.5009015381038801E-2</v>
+        <v>0.40728413510531403</v>
       </c>
       <c r="O3">
         <v>0.178883121111506</v>
       </c>
       <c r="P3">
-        <v>0.252528201494857</v>
+        <v>0.63322426050256897</v>
       </c>
       <c r="Q3">
-        <v>0.747471798505142</v>
+        <v>0.36677573949742998</v>
       </c>
       <c r="R3">
-        <v>0.266320237231221</v>
+        <v>0.687982071027047</v>
       </c>
       <c r="S3">
-        <v>0.733679762768779</v>
+        <v>0.312017928972952</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -3470,49 +3470,49 @@
         <v>11400</v>
       </c>
       <c r="E4">
-        <v>29000</v>
+        <v>70600</v>
       </c>
       <c r="F4">
-        <v>17600</v>
+        <v>59200</v>
       </c>
       <c r="G4">
         <v>2300</v>
       </c>
       <c r="H4">
-        <v>11700</v>
+        <v>18600</v>
       </c>
       <c r="I4">
-        <v>9400</v>
+        <v>16300</v>
       </c>
       <c r="J4">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="L4">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="M4">
-        <v>0.64887076252914699</v>
+        <v>0.36136235399872202</v>
       </c>
       <c r="N4">
-        <v>0.23123846104152801</v>
+        <v>0.51874686957195404</v>
       </c>
       <c r="O4">
         <v>0.119890776429323</v>
       </c>
       <c r="P4">
-        <v>0.63343537124846905</v>
+        <v>0.78191761894126599</v>
       </c>
       <c r="Q4">
-        <v>0.36656462875153001</v>
+        <v>0.21808238105873301</v>
       </c>
       <c r="R4">
-        <v>0.65618141578857603</v>
+        <v>0.80140850023196097</v>
       </c>
       <c r="S4">
-        <v>0.34381858421142297</v>
+        <v>0.198591499768038</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -3529,49 +3529,49 @@
         <v>21400</v>
       </c>
       <c r="E5">
-        <v>57200</v>
+        <v>157400</v>
       </c>
       <c r="F5">
-        <v>35800</v>
+        <v>136000</v>
       </c>
       <c r="G5">
         <v>1600</v>
       </c>
       <c r="H5">
-        <v>19900</v>
+        <v>37500</v>
       </c>
       <c r="I5">
-        <v>18300</v>
+        <v>35900</v>
       </c>
       <c r="J5">
         <v>22</v>
       </c>
       <c r="K5">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="L5">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="M5">
-        <v>0.70341579820519895</v>
+        <v>0.405601467587894</v>
       </c>
       <c r="N5">
-        <v>5.6391981262524302E-2</v>
+        <v>0.35420631187982898</v>
       </c>
       <c r="O5">
         <v>0.24019222053227601</v>
       </c>
       <c r="P5">
-        <v>0.17267996287690901</v>
+        <v>0.56429799044921602</v>
       </c>
       <c r="Q5">
-        <v>0.82732003712308999</v>
+        <v>0.43570200955078298</v>
       </c>
       <c r="R5">
-        <v>0.18691256346070301</v>
+        <v>0.58757087986002299</v>
       </c>
       <c r="S5">
-        <v>0.81308743653929605</v>
+        <v>0.41242912013997601</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -3588,49 +3588,49 @@
         <v>13500</v>
       </c>
       <c r="E6">
-        <v>28700</v>
+        <v>86300</v>
       </c>
       <c r="F6">
-        <v>15200</v>
+        <v>72800</v>
       </c>
       <c r="G6">
         <v>3000</v>
       </c>
       <c r="H6">
-        <v>11300</v>
+        <v>22600</v>
       </c>
       <c r="I6">
-        <v>8300</v>
+        <v>19600</v>
       </c>
       <c r="J6">
         <v>31</v>
       </c>
       <c r="K6">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="M6">
-        <v>0.73517277302125295</v>
+        <v>0.34496746612974499</v>
       </c>
       <c r="N6">
-        <v>9.7396278829744803E-2</v>
+        <v>0.48760158572125201</v>
       </c>
       <c r="O6">
         <v>0.167430948149001</v>
       </c>
       <c r="P6">
-        <v>0.31055034603794002</v>
+        <v>0.71079658648506605</v>
       </c>
       <c r="Q6">
-        <v>0.68944965396205904</v>
+        <v>0.28920341351493301</v>
       </c>
       <c r="R6">
-        <v>0.36540143054320801</v>
+        <v>0.73164206361295803</v>
       </c>
       <c r="S6">
-        <v>0.63459856945679105</v>
+        <v>0.26835793638704097</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -3641,55 +3641,55 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>9447.7867901936297</v>
+        <v>9447.7867901936206</v>
       </c>
       <c r="D7">
         <v>156700</v>
       </c>
       <c r="E7">
-        <v>323100</v>
+        <v>809200</v>
       </c>
       <c r="F7">
-        <v>166400</v>
+        <v>652500</v>
       </c>
       <c r="G7">
         <v>27200</v>
       </c>
       <c r="H7">
-        <v>97400</v>
+        <v>167600</v>
       </c>
       <c r="I7">
-        <v>70200</v>
+        <v>140400</v>
       </c>
       <c r="J7">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="L7">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M7">
-        <v>0.73807658061037795</v>
+        <v>0.435672911813342</v>
       </c>
       <c r="N7">
-        <v>4.8587317171154103E-2</v>
+        <v>0.35099098596818901</v>
       </c>
       <c r="O7">
         <v>0.21333610221846699</v>
       </c>
       <c r="P7">
-        <v>0.16226044266088399</v>
+        <v>0.57279001922426698</v>
       </c>
       <c r="Q7">
-        <v>0.83773955733911498</v>
+        <v>0.42720998077573202</v>
       </c>
       <c r="R7">
-        <v>0.17301672768186099</v>
+        <v>0.586336952012944</v>
       </c>
       <c r="S7">
-        <v>0.82698327231813795</v>
+        <v>0.413663047987055</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -3706,49 +3706,49 @@
         <v>1300</v>
       </c>
       <c r="E8">
-        <v>13800</v>
+        <v>25400</v>
       </c>
       <c r="F8">
-        <v>12500</v>
+        <v>24100</v>
       </c>
       <c r="G8">
         <v>200</v>
       </c>
       <c r="H8">
-        <v>6600</v>
+        <v>7400</v>
       </c>
       <c r="I8">
-        <v>6400</v>
+        <v>7200</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="M8">
-        <v>0.341768083148071</v>
+        <v>0.25079495593823797</v>
       </c>
       <c r="N8">
-        <v>4.0296866940982001E-2</v>
+        <v>0.131269994150815</v>
       </c>
       <c r="O8">
         <v>0.61793504991094605</v>
       </c>
       <c r="P8">
-        <v>3.7145644184080402E-2</v>
+        <v>0.14561804923197</v>
       </c>
       <c r="Q8">
-        <v>0.96285435581591905</v>
+        <v>0.85438195076802903</v>
       </c>
       <c r="R8">
-        <v>6.0419253513439498E-2</v>
+        <v>0.16598597129529599</v>
       </c>
       <c r="S8">
-        <v>0.93958074648655998</v>
+        <v>0.83401402870470298</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -3765,49 +3765,49 @@
         <v>12500</v>
       </c>
       <c r="E9">
-        <v>37400</v>
+        <v>71800</v>
       </c>
       <c r="F9">
-        <v>24900</v>
+        <v>59300</v>
       </c>
       <c r="G9">
         <v>2100</v>
       </c>
       <c r="H9">
-        <v>15600</v>
+        <v>21400</v>
       </c>
       <c r="I9">
-        <v>13500</v>
+        <v>19300</v>
       </c>
       <c r="J9">
         <v>13</v>
       </c>
       <c r="K9">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="M9">
-        <v>0.50580354474710199</v>
+        <v>0.26913929035305201</v>
       </c>
       <c r="N9">
-        <v>0.149535348011227</v>
+        <v>0.38619960240527701</v>
       </c>
       <c r="O9">
         <v>0.34466110724166998</v>
       </c>
       <c r="P9">
-        <v>0.23880123409312101</v>
+        <v>0.45102942369514398</v>
       </c>
       <c r="Q9">
-        <v>0.76119876590687796</v>
+        <v>0.54897057630485502</v>
       </c>
       <c r="R9">
-        <v>0.295774626111724</v>
+        <v>0.50931985793271595</v>
       </c>
       <c r="S9">
-        <v>0.704225373888275</v>
+        <v>0.490680142067283</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3824,49 +3824,49 @@
         <v>163200</v>
       </c>
       <c r="E10">
-        <v>318300</v>
+        <v>544800</v>
       </c>
       <c r="F10">
-        <v>155100</v>
+        <v>381600</v>
       </c>
       <c r="G10">
         <v>33300</v>
       </c>
       <c r="H10">
-        <v>114200</v>
+        <v>159400</v>
       </c>
       <c r="I10">
-        <v>80900</v>
+        <v>126100</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>0.61181353306202302</v>
+        <v>0.342971911618424</v>
       </c>
       <c r="N10">
-        <v>4.9696302055415899E-2</v>
+        <v>0.318537923499015</v>
       </c>
       <c r="O10">
         <v>0.33849016488256001</v>
       </c>
       <c r="P10">
-        <v>7.6907313903927299E-2</v>
+        <v>0.356826544254292</v>
       </c>
       <c r="Q10">
-        <v>0.92309268609607198</v>
+        <v>0.64317345574570695</v>
       </c>
       <c r="R10">
-        <v>0.114978224053234</v>
+        <v>0.432482055132138</v>
       </c>
       <c r="S10">
-        <v>0.88502177594676501</v>
+        <v>0.567517944867861</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -3883,49 +3883,49 @@
         <v>4200</v>
       </c>
       <c r="E11">
-        <v>10500</v>
+        <v>21700</v>
       </c>
       <c r="F11">
-        <v>6300</v>
+        <v>17500</v>
       </c>
       <c r="G11">
         <v>2000</v>
       </c>
       <c r="H11">
-        <v>5300</v>
+        <v>6800</v>
       </c>
       <c r="I11">
-        <v>3300</v>
+        <v>4800</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>0.63009872257295896</v>
+        <v>0.40666339857689499</v>
       </c>
       <c r="N11">
-        <v>5.0040256379603E-2</v>
+        <v>0.27347558037566599</v>
       </c>
       <c r="O11">
         <v>0.31986102104743702</v>
       </c>
       <c r="P11">
-        <v>6.8098764815207893E-2</v>
+        <v>0.42078409861537303</v>
       </c>
       <c r="Q11">
-        <v>0.93190123518479195</v>
+        <v>0.57921590138462598</v>
       </c>
       <c r="R11">
-        <v>0.12354183535109101</v>
+        <v>0.39265157270361101</v>
       </c>
       <c r="S11">
-        <v>0.87645816464890802</v>
+        <v>0.60734842729638805</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -3942,49 +3942,49 @@
         <v>37500</v>
       </c>
       <c r="E12">
-        <v>50300</v>
+        <v>74200</v>
       </c>
       <c r="F12">
-        <v>12800</v>
+        <v>36700</v>
       </c>
       <c r="G12">
         <v>8200</v>
       </c>
       <c r="H12">
-        <v>15400</v>
+        <v>18900</v>
       </c>
       <c r="I12">
-        <v>7200</v>
+        <v>10700</v>
       </c>
       <c r="J12">
         <v>15</v>
       </c>
       <c r="K12">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>0.71715067020525403</v>
+        <v>0.46485514044059001</v>
       </c>
       <c r="N12">
-        <v>9.54147223883276E-2</v>
+        <v>0.34771025215299201</v>
       </c>
       <c r="O12">
         <v>0.18743460740641699</v>
       </c>
       <c r="P12">
-        <v>0.21313770243546201</v>
+        <v>0.52952295754939904</v>
       </c>
       <c r="Q12">
-        <v>0.78686229756453696</v>
+        <v>0.47047704245060001</v>
       </c>
       <c r="R12">
-        <v>0.30025130994892701</v>
+        <v>0.53124718534638204</v>
       </c>
       <c r="S12">
-        <v>0.69974869005107199</v>
+        <v>0.46875281465361701</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -3998,49 +3998,49 @@
         <v>483900</v>
       </c>
       <c r="E13">
-        <v>1009900</v>
+        <v>2192900</v>
       </c>
       <c r="F13">
-        <v>526000</v>
+        <v>1709000</v>
       </c>
       <c r="G13">
         <v>84000</v>
       </c>
       <c r="H13">
-        <v>341800</v>
+        <v>538800</v>
       </c>
       <c r="I13">
-        <v>257800</v>
+        <v>454800</v>
       </c>
       <c r="J13">
         <v>16</v>
       </c>
       <c r="K13">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M13">
-        <v>0.65372524042376201</v>
+        <v>0.37863044106576799</v>
       </c>
       <c r="N13">
-        <v>5.9827875657770799E-2</v>
+        <v>0.334922675015764</v>
       </c>
       <c r="O13">
         <v>0.28644688391846601</v>
       </c>
       <c r="P13">
-        <v>0.194119746530757</v>
+        <v>0.53567410566707996</v>
       </c>
       <c r="Q13">
-        <v>0.80588025346924197</v>
+        <v>0.46432589433291899</v>
       </c>
       <c r="R13">
-        <v>0.22302547624180799</v>
+        <v>0.55965720048104795</v>
       </c>
       <c r="S13">
-        <v>0.77697452375819098</v>
+        <v>0.440342799518952</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
